--- a/reconcile.xlsx
+++ b/reconcile.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="722">
   <si>
     <t>Revenue Stream: 1112E1 [Ordinary taxes on income, profits and capital gains] - Acompte provisionnel de l&amp;#039;IBP</t>
   </si>
@@ -457,9 +457,6 @@
     <t xml:space="preserve">From government participation (equity) </t>
   </si>
   <si>
-    <t xml:space="preserve">Royalties </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bonuses </t>
   </si>
   <si>
@@ -2186,6 +2183,12 @@
   </si>
   <si>
     <t>Loncor Resources Congo</t>
+  </si>
+  <si>
+    <t>Royalties (Redevances minières)</t>
+  </si>
+  <si>
+    <t>Royalties (pour les pétroliers)</t>
   </si>
 </sst>
 </file>
@@ -2547,1241 +2550,1241 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>610</v>
+      <c r="A3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>157</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>611</v>
+      <c r="A4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>157</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>655</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>612</v>
+      <c r="A7" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>655</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>613</v>
+      <c r="A8" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>655</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
+      <c r="A9" t="s">
+        <v>653</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>655</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>655</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
+      <c r="A13" t="s">
+        <v>617</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>622</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>656</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>657</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>657</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>616</v>
+      <c r="A19" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>658</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>617</v>
+      <c r="A21" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>618</v>
+        <v>647</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>10</v>
+      <c r="A23" t="s">
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>672</v>
+        <v>133</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>672</v>
+        <v>133</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>659</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>619</v>
+      <c r="A25" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>658</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>620</v>
+      <c r="A26" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>621</v>
+      <c r="A27" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>671</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>623</v>
+      <c r="A29" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>624</v>
+        <v>650</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>11</v>
+      <c r="A31" t="s">
+        <v>629</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>166</v>
+        <v>661</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>12</v>
+      <c r="A32" t="s">
+        <v>630</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>166</v>
+        <v>661</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>166</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>108</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>14</v>
+      <c r="A35" t="s">
+        <v>631</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>15</v>
+      <c r="A36" t="s">
+        <v>632</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>625</v>
+      <c r="A37" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>660</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>626</v>
+      <c r="A38" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>660</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>17</v>
+      <c r="A41" t="s">
+        <v>645</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>669</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>628</v>
+      <c r="A46" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>99</v>
+        <v>671</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>154</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>629</v>
+      <c r="A47" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>99</v>
+        <v>671</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>154</v>
+        <v>658</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>22</v>
+      <c r="A48" t="s">
+        <v>619</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>630</v>
+      <c r="A51" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>662</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>631</v>
+      <c r="A52" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>662</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>662</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>100</v>
+        <v>671</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>632</v>
+      <c r="A55" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>100</v>
+        <v>671</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>633</v>
+      <c r="A56" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>662</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>185</v>
+        <v>658</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>188</v>
+        <v>658</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>29</v>
+      <c r="A59" t="s">
+        <v>646</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>110</v>
+        <v>658</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>634</v>
+      <c r="A61" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>661</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>661</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>635</v>
+      <c r="A64" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>661</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>670</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>670</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>111</v>
+        <v>668</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>637</v>
+      <c r="A70" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>664</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>638</v>
+      <c r="A71" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>665</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>37</v>
+      <c r="A72" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>112</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>639</v>
+      <c r="A82" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>640</v>
+      <c r="A83" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>641</v>
+      <c r="A84" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>663</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>639</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="D87" s="1" t="s">
-        <v>205</v>
+        <v>662</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>173</v>
+      <c r="A88" t="s">
+        <v>640</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>205</v>
+        <v>662</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>128</v>
@@ -3790,250 +3793,250 @@
         <v>143</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>208</v>
+        <v>662</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>174</v>
+      <c r="A93" t="s">
+        <v>638</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>176</v>
+        <v>662</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>49</v>
+      <c r="A94" t="s">
+        <v>620</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>208</v>
+        <v>670</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>196</v>
+      <c r="A95" t="s">
+        <v>621</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>208</v>
+        <v>670</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>642</v>
+      <c r="A99" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>195</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>208</v>
+        <v>659</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>115</v>
+        <v>659</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>116</v>
+        <v>659</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>54</v>
+      <c r="A103" t="s">
+        <v>625</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>116</v>
+        <v>659</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>672</v>
+        <v>99</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>659</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>177</v>
+      <c r="A105" t="s">
+        <v>626</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>672</v>
+        <v>99</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>659</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>99</v>
@@ -4042,432 +4045,432 @@
         <v>139</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>644</v>
+      <c r="A108" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>57</v>
+      <c r="A110" t="s">
+        <v>628</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>646</v>
+      <c r="A111" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>205</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>666</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>62</v>
+      <c r="A116" t="s">
+        <v>609</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>63</v>
+      <c r="A117" t="s">
+        <v>610</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>117</v>
+        <v>654</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>65</v>
+      <c r="A120" t="s">
+        <v>611</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>66</v>
+      <c r="A121" t="s">
+        <v>612</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>647</v>
+      <c r="A122" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>659</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>180</v>
+        <v>657</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>70</v>
+      <c r="A127" t="s">
+        <v>616</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>71</v>
+      <c r="A129" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>667</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>665</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>72</v>
+      <c r="A131" t="s">
+        <v>651</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>73</v>
+      <c r="A132" t="s">
+        <v>636</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>119</v>
+        <v>663</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>74</v>
+      <c r="A133" t="s">
+        <v>637</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>119</v>
+        <v>664</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>75</v>
+      <c r="A134" t="s">
+        <v>37</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>650</v>
+      <c r="A135" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>668</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>651</v>
+      <c r="A137" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>102</v>
@@ -4476,12 +4479,12 @@
         <v>142</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>102</v>
@@ -4490,413 +4493,413 @@
         <v>142</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>652</v>
+      <c r="A140" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>192</v>
+        <v>113</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>80</v>
+      <c r="A144" t="s">
+        <v>648</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>122</v>
+        <v>664</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>653</v>
+      <c r="A148" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>149</v>
+        <v>720</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>654</v>
+      <c r="A149" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>150</v>
+        <v>721</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>152</v>
+        <v>721</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>152</v>
+        <v>721</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>86</v>
+      <c r="A152" t="s">
+        <v>641</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>150</v>
+        <v>720</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>150</v>
+        <v>720</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>150</v>
+        <v>720</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>110</v>
+        <v>194</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>142</v>
+        <v>720</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>92</v>
+      <c r="A158" t="s">
+        <v>652</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>185</v>
+        <v>660</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>187</v>
+      <c r="A161" t="s">
+        <v>633</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>188</v>
+        <v>660</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>190</v>
+      <c r="A164" t="s">
+        <v>634</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>191</v>
+      <c r="A165" t="s">
+        <v>635</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>188</v>
+        <v>660</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>94</v>
+      <c r="A166" t="s">
+        <v>614</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>188</v>
+        <v>656</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>122</v>
+        <v>656</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>96</v>
+      <c r="A168" t="s">
+        <v>615</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>124</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -4912,8 +4915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4925,4049 +4928,4049 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
         <v>213</v>
       </c>
-      <c r="B2" t="s">
-        <v>214</v>
-      </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" t="s">
         <v>219</v>
       </c>
-      <c r="B6" t="s">
-        <v>220</v>
-      </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" t="s">
         <v>229</v>
       </c>
-      <c r="B15" t="s">
-        <v>230</v>
-      </c>
       <c r="D15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" t="s">
         <v>237</v>
-      </c>
-      <c r="B22" t="s">
-        <v>237</v>
-      </c>
-      <c r="D22" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" t="s">
         <v>237</v>
-      </c>
-      <c r="D23" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" t="s">
         <v>237</v>
-      </c>
-      <c r="D24" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>415</v>
       </c>
       <c r="B25" t="s">
-        <v>241</v>
+        <v>691</v>
+      </c>
+      <c r="C25" t="s">
+        <v>690</v>
       </c>
       <c r="D25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>242</v>
+        <v>416</v>
       </c>
       <c r="B26" t="s">
-        <v>242</v>
+        <v>691</v>
+      </c>
+      <c r="C26" t="s">
+        <v>690</v>
       </c>
       <c r="D26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>243</v>
+        <v>417</v>
       </c>
       <c r="B27" t="s">
-        <v>242</v>
+        <v>691</v>
+      </c>
+      <c r="C27" t="s">
+        <v>690</v>
       </c>
       <c r="D27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>244</v>
+        <v>418</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>691</v>
+      </c>
+      <c r="C28" t="s">
+        <v>690</v>
       </c>
       <c r="D28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>245</v>
+        <v>419</v>
       </c>
       <c r="B29" t="s">
-        <v>244</v>
+        <v>691</v>
+      </c>
+      <c r="C29" t="s">
+        <v>690</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s">
-        <v>679</v>
+        <v>240</v>
       </c>
       <c r="D30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B31" t="s">
-        <v>679</v>
+        <v>241</v>
       </c>
       <c r="D31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s">
-        <v>679</v>
+        <v>241</v>
       </c>
       <c r="D32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B33" t="s">
-        <v>679</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B34" t="s">
-        <v>679</v>
+        <v>243</v>
       </c>
       <c r="D34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B36" t="s">
-        <v>680</v>
+        <v>261</v>
       </c>
       <c r="D36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B37" t="s">
-        <v>680</v>
+        <v>261</v>
       </c>
       <c r="D37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>255</v>
+        <v>605</v>
       </c>
       <c r="B38" t="s">
-        <v>680</v>
+        <v>261</v>
       </c>
       <c r="D38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>256</v>
+        <v>604</v>
       </c>
       <c r="B39" t="s">
-        <v>680</v>
+        <v>261</v>
       </c>
       <c r="D39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B40" t="s">
         <v>681</v>
       </c>
       <c r="D40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="B41" t="s">
         <v>681</v>
       </c>
       <c r="D41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B42" t="s">
-        <v>681</v>
+        <v>264</v>
       </c>
       <c r="D42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B43" t="s">
-        <v>681</v>
+        <v>264</v>
       </c>
       <c r="D43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B44" t="s">
-        <v>262</v>
+        <v>679</v>
       </c>
       <c r="D44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B45" t="s">
-        <v>262</v>
+        <v>679</v>
       </c>
       <c r="D45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>606</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s">
-        <v>262</v>
+        <v>679</v>
       </c>
       <c r="D46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>605</v>
+        <v>255</v>
       </c>
       <c r="B47" t="s">
-        <v>262</v>
+        <v>679</v>
       </c>
       <c r="D47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B48" t="s">
-        <v>682</v>
+        <v>267</v>
       </c>
       <c r="D48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B49" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B50" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>270</v>
+      </c>
+      <c r="B51" t="s">
         <v>267</v>
       </c>
-      <c r="B51" t="s">
-        <v>268</v>
-      </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B52" t="s">
-        <v>268</v>
+        <v>680</v>
       </c>
       <c r="D52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B53" t="s">
-        <v>268</v>
+        <v>680</v>
       </c>
       <c r="D53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B54" t="s">
-        <v>268</v>
+        <v>680</v>
       </c>
       <c r="D54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B55" t="s">
-        <v>273</v>
+        <v>680</v>
       </c>
       <c r="D55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B56" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D56" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B57" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B60" t="s">
-        <v>682</v>
+        <v>274</v>
       </c>
       <c r="D60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B61" t="s">
+        <v>682</v>
+      </c>
+      <c r="C61" t="s">
         <v>683</v>
       </c>
-      <c r="C61" t="s">
-        <v>684</v>
-      </c>
       <c r="D61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B62" t="s">
+        <v>682</v>
+      </c>
+      <c r="C62" t="s">
         <v>683</v>
       </c>
-      <c r="C62" t="s">
-        <v>684</v>
-      </c>
       <c r="D62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B63" t="s">
+        <v>682</v>
+      </c>
+      <c r="C63" t="s">
         <v>683</v>
       </c>
-      <c r="C63" t="s">
-        <v>684</v>
-      </c>
       <c r="D63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>281</v>
+      </c>
+      <c r="B64" t="s">
         <v>282</v>
       </c>
-      <c r="B64" t="s">
-        <v>283</v>
-      </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" t="s">
         <v>284</v>
       </c>
-      <c r="B66" t="s">
-        <v>285</v>
-      </c>
       <c r="D66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B69" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B70" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B71" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B72" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="B74" t="s">
-        <v>293</v>
+        <v>678</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>608</v>
+        <v>247</v>
       </c>
       <c r="B75" t="s">
-        <v>293</v>
+        <v>678</v>
       </c>
       <c r="D75" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="B76" t="s">
-        <v>294</v>
+        <v>678</v>
       </c>
       <c r="D76" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="B77" t="s">
-        <v>295</v>
+        <v>678</v>
       </c>
       <c r="D77" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="B78" t="s">
-        <v>296</v>
+        <v>678</v>
       </c>
       <c r="D78" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B79" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>298</v>
+        <v>607</v>
       </c>
       <c r="B80" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D80" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B81" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D81" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B82" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D82" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B83" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D83" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B84" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D84" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B85" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B86" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D86" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B87" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D87" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B88" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D88" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B89" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B90" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D90" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B91" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D91" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B92" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D92" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B93" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D93" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B94" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D94" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B95" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D95" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B96" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D96" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B97" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D97" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B98" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D98" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B99" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B100" t="s">
-        <v>718</v>
+        <v>312</v>
       </c>
       <c r="D100" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B101" t="s">
-        <v>718</v>
+        <v>314</v>
       </c>
       <c r="D101" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B102" t="s">
-        <v>719</v>
+        <v>314</v>
       </c>
       <c r="D102" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B103" t="s">
-        <v>719</v>
+        <v>315</v>
       </c>
       <c r="D103" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B104" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D104" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B105" t="s">
-        <v>323</v>
+        <v>717</v>
       </c>
       <c r="D105" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B106" t="s">
-        <v>323</v>
+        <v>717</v>
       </c>
       <c r="D106" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B108" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B109" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D109" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B110" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D110" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B111" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D111" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B112" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D112" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B113" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D113" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B114" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D114" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B115" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D115" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B116" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D116" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B117" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D117" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B118" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D118" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B119" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D119" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B120" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D120" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B121" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D121" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B122" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D122" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B123" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D123" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B124" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B125" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D125" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B126" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D126" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B127" t="s">
-        <v>714</v>
+        <v>339</v>
       </c>
       <c r="D127" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B128" t="s">
-        <v>714</v>
+        <v>343</v>
       </c>
       <c r="D128" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B129" t="s">
-        <v>714</v>
+        <v>343</v>
       </c>
       <c r="D129" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B130" t="s">
-        <v>354</v>
+        <v>713</v>
       </c>
       <c r="D130" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B131" t="s">
-        <v>354</v>
+        <v>713</v>
       </c>
       <c r="D131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B132" t="s">
-        <v>357</v>
+        <v>713</v>
       </c>
       <c r="D132" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B133" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D133" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B134" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D134" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B135" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D135" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B136" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D136" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B137" t="s">
-        <v>712</v>
+        <v>356</v>
       </c>
       <c r="D137" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B138" t="s">
-        <v>712</v>
+        <v>359</v>
       </c>
       <c r="D138" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B139" t="s">
-        <v>710</v>
-      </c>
-      <c r="C139" t="s">
-        <v>711</v>
+        <v>359</v>
       </c>
       <c r="D139" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B140" t="s">
-        <v>710</v>
-      </c>
-      <c r="C140" t="s">
         <v>711</v>
       </c>
       <c r="D140" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B141" t="s">
-        <v>710</v>
-      </c>
-      <c r="C141" t="s">
         <v>711</v>
       </c>
       <c r="D141" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B142" t="s">
+        <v>709</v>
+      </c>
+      <c r="C142" t="s">
         <v>710</v>
       </c>
-      <c r="C142" t="s">
-        <v>711</v>
-      </c>
       <c r="D142" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B143" t="s">
+        <v>709</v>
+      </c>
+      <c r="C143" t="s">
         <v>710</v>
       </c>
-      <c r="C143" t="s">
-        <v>711</v>
-      </c>
       <c r="D143" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B144" t="s">
-        <v>708</v>
+        <v>709</v>
+      </c>
+      <c r="C144" t="s">
+        <v>710</v>
       </c>
       <c r="D144" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B145" t="s">
-        <v>708</v>
+        <v>709</v>
+      </c>
+      <c r="C145" t="s">
+        <v>710</v>
       </c>
       <c r="D145" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B146" t="s">
         <v>709</v>
       </c>
+      <c r="C146" t="s">
+        <v>710</v>
+      </c>
       <c r="D146" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="B147" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D147" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="B148" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D148" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B149" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D149" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="B150" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D150" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="B151" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D151" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="B152" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D152" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B153" t="s">
-        <v>685</v>
-      </c>
-      <c r="C153" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="D153" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B154" t="s">
-        <v>685</v>
-      </c>
-      <c r="C154" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="D154" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B155" t="s">
-        <v>685</v>
-      </c>
-      <c r="C155" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="D155" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>246</v>
+        <v>373</v>
       </c>
       <c r="B156" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C156" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D156" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B157" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C157" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D157" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>580</v>
+        <v>375</v>
       </c>
       <c r="B158" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C158" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D158" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>378</v>
+        <v>245</v>
       </c>
       <c r="B159" t="s">
-        <v>379</v>
+        <v>686</v>
+      </c>
+      <c r="C159" t="s">
+        <v>687</v>
       </c>
       <c r="D159" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B160" t="s">
-        <v>381</v>
+        <v>686</v>
+      </c>
+      <c r="C160" t="s">
+        <v>687</v>
       </c>
       <c r="D160" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>382</v>
+        <v>579</v>
       </c>
       <c r="B161" t="s">
-        <v>383</v>
+        <v>686</v>
+      </c>
+      <c r="C161" t="s">
+        <v>687</v>
       </c>
       <c r="D161" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>384</v>
+        <v>319</v>
       </c>
       <c r="B162" t="s">
-        <v>383</v>
+        <v>718</v>
       </c>
       <c r="D162" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>385</v>
+        <v>320</v>
       </c>
       <c r="B163" t="s">
-        <v>386</v>
+        <v>718</v>
       </c>
       <c r="D163" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B164" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D164" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B165" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D165" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B166" t="s">
-        <v>689</v>
+        <v>382</v>
       </c>
       <c r="D166" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B167" t="s">
-        <v>689</v>
+        <v>382</v>
       </c>
       <c r="D167" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B168" t="s">
-        <v>690</v>
+        <v>385</v>
       </c>
       <c r="D168" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B169" t="s">
-        <v>690</v>
+        <v>385</v>
       </c>
       <c r="D169" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B170" t="s">
-        <v>394</v>
+        <v>689</v>
       </c>
       <c r="D170" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B171" t="s">
-        <v>394</v>
+        <v>689</v>
       </c>
       <c r="D171" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B172" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D172" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B173" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="D173" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B174" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="D174" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B175" t="s">
-        <v>720</v>
+        <v>393</v>
       </c>
       <c r="D175" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B176" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D176" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B177" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D177" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B178" t="s">
-        <v>403</v>
+        <v>719</v>
       </c>
       <c r="D178" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B179" t="s">
-        <v>403</v>
+        <v>719</v>
       </c>
       <c r="D179" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B180" t="s">
-        <v>403</v>
+        <v>719</v>
       </c>
       <c r="D180" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B181" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D181" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B182" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D182" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B183" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D183" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B184" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D184" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B185" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D185" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B186" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D186" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B187" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D187" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B188" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D188" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B189" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D189" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B190" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D190" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B191" t="s">
-        <v>692</v>
-      </c>
-      <c r="C191" t="s">
-        <v>691</v>
+        <v>409</v>
       </c>
       <c r="D191" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B192" t="s">
-        <v>692</v>
-      </c>
-      <c r="C192" t="s">
-        <v>691</v>
+        <v>409</v>
       </c>
       <c r="D192" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B193" t="s">
-        <v>692</v>
-      </c>
-      <c r="C193" t="s">
-        <v>691</v>
+        <v>412</v>
       </c>
       <c r="D193" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B194" t="s">
-        <v>692</v>
-      </c>
-      <c r="C194" t="s">
-        <v>691</v>
+        <v>412</v>
       </c>
       <c r="D194" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B195" t="s">
-        <v>692</v>
-      </c>
-      <c r="C195" t="s">
-        <v>691</v>
+        <v>414</v>
       </c>
       <c r="D195" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B196" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D196" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>421</v>
+      </c>
+      <c r="B197" t="s">
         <v>422</v>
       </c>
-      <c r="B197" t="s">
-        <v>423</v>
-      </c>
       <c r="D197" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D198" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B199" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D199" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B200" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D200" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>425</v>
+      </c>
+      <c r="B201" t="s">
         <v>426</v>
       </c>
-      <c r="B201" t="s">
-        <v>427</v>
-      </c>
       <c r="D201" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B202" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D202" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>428</v>
+      </c>
+      <c r="B203" t="s">
         <v>429</v>
       </c>
-      <c r="B203" t="s">
-        <v>430</v>
-      </c>
       <c r="D203" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B204" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D204" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B205" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D205" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B206" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D206" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B207" t="s">
+        <v>673</v>
+      </c>
+      <c r="C207" t="s">
         <v>674</v>
       </c>
-      <c r="C207" t="s">
-        <v>675</v>
-      </c>
       <c r="D207" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B208" t="s">
+        <v>673</v>
+      </c>
+      <c r="C208" t="s">
         <v>674</v>
       </c>
-      <c r="C208" t="s">
-        <v>675</v>
-      </c>
       <c r="D208" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B209" t="s">
+        <v>673</v>
+      </c>
+      <c r="C209" t="s">
         <v>674</v>
       </c>
-      <c r="C209" t="s">
-        <v>675</v>
-      </c>
       <c r="D209" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B210" t="s">
+        <v>673</v>
+      </c>
+      <c r="C210" t="s">
         <v>674</v>
       </c>
-      <c r="C210" t="s">
-        <v>675</v>
-      </c>
       <c r="D210" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B211" t="s">
+        <v>673</v>
+      </c>
+      <c r="C211" t="s">
         <v>674</v>
       </c>
-      <c r="C211" t="s">
-        <v>675</v>
-      </c>
       <c r="D211" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B212" t="s">
+        <v>673</v>
+      </c>
+      <c r="C212" t="s">
         <v>674</v>
       </c>
-      <c r="C212" t="s">
-        <v>675</v>
-      </c>
       <c r="D212" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B213" t="s">
+        <v>673</v>
+      </c>
+      <c r="C213" t="s">
         <v>674</v>
       </c>
-      <c r="C213" t="s">
-        <v>675</v>
-      </c>
       <c r="D213" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B214" t="s">
+        <v>673</v>
+      </c>
+      <c r="C214" t="s">
         <v>674</v>
       </c>
-      <c r="C214" t="s">
-        <v>675</v>
-      </c>
       <c r="D214" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B215" t="s">
+        <v>673</v>
+      </c>
+      <c r="C215" t="s">
         <v>674</v>
       </c>
-      <c r="C215" t="s">
-        <v>675</v>
-      </c>
       <c r="D215" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B216" t="s">
+        <v>673</v>
+      </c>
+      <c r="C216" t="s">
         <v>674</v>
       </c>
-      <c r="C216" t="s">
-        <v>675</v>
-      </c>
       <c r="D216" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B217" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C217" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D217" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B218" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C218" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D218" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B219" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C219" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D219" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>446</v>
+      </c>
+      <c r="B220" t="s">
         <v>447</v>
       </c>
-      <c r="B220" t="s">
-        <v>448</v>
-      </c>
       <c r="D220" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B221" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D221" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B222" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D222" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B223" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D223" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>451</v>
+      </c>
+      <c r="B224" t="s">
         <v>452</v>
       </c>
-      <c r="B224" t="s">
-        <v>453</v>
-      </c>
       <c r="D224" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B225" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D225" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B226" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D226" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B227" t="s">
+        <v>693</v>
+      </c>
+      <c r="C227" t="s">
         <v>694</v>
       </c>
-      <c r="C227" t="s">
-        <v>695</v>
-      </c>
       <c r="D227" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B228" t="s">
+        <v>693</v>
+      </c>
+      <c r="C228" t="s">
         <v>694</v>
       </c>
-      <c r="C228" t="s">
-        <v>695</v>
-      </c>
       <c r="D228" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B229" t="s">
+        <v>693</v>
+      </c>
+      <c r="C229" t="s">
         <v>694</v>
       </c>
-      <c r="C229" t="s">
-        <v>695</v>
-      </c>
       <c r="D229" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B230" t="s">
+        <v>693</v>
+      </c>
+      <c r="C230" t="s">
         <v>694</v>
       </c>
-      <c r="C230" t="s">
-        <v>695</v>
-      </c>
       <c r="D230" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B231" t="s">
+        <v>693</v>
+      </c>
+      <c r="C231" t="s">
         <v>694</v>
       </c>
-      <c r="C231" t="s">
-        <v>695</v>
-      </c>
       <c r="D231" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B232" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D232" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>460</v>
+      </c>
+      <c r="B233" t="s">
         <v>461</v>
       </c>
-      <c r="B233" t="s">
-        <v>462</v>
-      </c>
       <c r="D233" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B234" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D234" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B235" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D235" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>464</v>
+      </c>
+      <c r="B236" t="s">
         <v>465</v>
       </c>
-      <c r="B236" t="s">
-        <v>466</v>
-      </c>
       <c r="D236" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B237" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D237" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B238" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D238" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B239" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D239" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>468</v>
+      </c>
+      <c r="B240" t="s">
         <v>469</v>
       </c>
-      <c r="B240" t="s">
-        <v>470</v>
-      </c>
       <c r="D240" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B241" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D241" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B242" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D242" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B243" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D243" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B244" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D244" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B245" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D245" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B246" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D246" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B247" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D247" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B248" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D248" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B249" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D249" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B250" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D250" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B251" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D251" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B252" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D252" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B253" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D253" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B254" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D254" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B255" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D255" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B256" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D256" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B257" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D257" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B258" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D258" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>487</v>
+      </c>
+      <c r="B259" t="s">
         <v>488</v>
       </c>
-      <c r="B259" t="s">
-        <v>489</v>
-      </c>
       <c r="D259" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B260" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D260" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B261" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D261" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B262" t="s">
-        <v>696</v>
+        <v>496</v>
       </c>
       <c r="D262" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B263" t="s">
-        <v>696</v>
+        <v>698</v>
+      </c>
+      <c r="C263" t="s">
+        <v>699</v>
       </c>
       <c r="D263" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B264" t="s">
-        <v>696</v>
+        <v>698</v>
+      </c>
+      <c r="C264" t="s">
+        <v>699</v>
       </c>
       <c r="D264" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B265" t="s">
-        <v>696</v>
+        <v>500</v>
       </c>
       <c r="D265" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B266" t="s">
-        <v>697</v>
+        <v>500</v>
       </c>
       <c r="D266" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>607</v>
+        <v>502</v>
       </c>
       <c r="B267" t="s">
-        <v>697</v>
+        <v>500</v>
       </c>
       <c r="D267" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B268" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="D268" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B269" t="s">
-        <v>699</v>
-      </c>
-      <c r="C269" t="s">
-        <v>700</v>
+        <v>504</v>
       </c>
       <c r="D269" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B270" t="s">
-        <v>699</v>
-      </c>
-      <c r="C270" t="s">
-        <v>700</v>
+        <v>506</v>
       </c>
       <c r="D270" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="B271" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D271" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B272" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D272" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B273" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="D273" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="B274" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D274" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B275" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="D275" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B276" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D276" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="B277" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="D277" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B278" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="D278" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="B279" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="D279" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="B280" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="D280" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="B281" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="D281" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="B282" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="D282" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="B283" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D283" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B284" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="D284" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="B285" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="D285" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B286" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="D286" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="B287" t="s">
-        <v>522</v>
+        <v>700</v>
       </c>
       <c r="D287" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="B288" t="s">
-        <v>522</v>
+        <v>700</v>
       </c>
       <c r="D288" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B289" t="s">
-        <v>522</v>
+        <v>700</v>
       </c>
       <c r="D289" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B290" t="s">
-        <v>526</v>
+        <v>700</v>
       </c>
       <c r="D290" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B291" t="s">
-        <v>526</v>
+        <v>700</v>
       </c>
       <c r="D291" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>528</v>
+        <v>491</v>
       </c>
       <c r="B292" t="s">
-        <v>526</v>
+        <v>695</v>
       </c>
       <c r="D292" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>529</v>
+        <v>492</v>
       </c>
       <c r="B293" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D293" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>531</v>
+        <v>493</v>
       </c>
       <c r="B294" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D294" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="B295" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D295" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>532</v>
+        <v>495</v>
       </c>
       <c r="B296" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D296" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>533</v>
+        <v>606</v>
       </c>
       <c r="B297" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D297" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B298" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D298" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>534</v>
+      </c>
+      <c r="B299" t="s">
         <v>535</v>
       </c>
-      <c r="B299" t="s">
-        <v>536</v>
-      </c>
       <c r="D299" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B300" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D300" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B301" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D301" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B302" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D302" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B303" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D303" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B304" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D304" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>541</v>
+      </c>
+      <c r="B305" t="s">
         <v>542</v>
       </c>
-      <c r="B305" t="s">
-        <v>543</v>
-      </c>
       <c r="D305" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B306" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D306" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>544</v>
+      </c>
+      <c r="B307" t="s">
         <v>545</v>
       </c>
-      <c r="B307" t="s">
-        <v>546</v>
-      </c>
       <c r="D307" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B308" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D308" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B309" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D309" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B310" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D310" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B311" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D311" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>548</v>
+      </c>
+      <c r="B312" t="s">
         <v>549</v>
       </c>
-      <c r="B312" t="s">
-        <v>550</v>
-      </c>
       <c r="D312" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B313" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D313" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>553</v>
+      </c>
+      <c r="B314" t="s">
         <v>554</v>
       </c>
-      <c r="B314" t="s">
-        <v>555</v>
-      </c>
       <c r="D314" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B315" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D315" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B316" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D316" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B317" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D317" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>558</v>
+      </c>
+      <c r="B318" t="s">
         <v>559</v>
       </c>
-      <c r="B318" t="s">
-        <v>560</v>
-      </c>
       <c r="D318" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B319" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D319" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B320" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D320" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
+        <v>562</v>
+      </c>
+      <c r="B321" t="s">
         <v>563</v>
       </c>
-      <c r="B321" t="s">
-        <v>564</v>
-      </c>
       <c r="D321" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B322" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D322" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B323" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D323" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B324" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D324" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>567</v>
+      </c>
+      <c r="B325" t="s">
         <v>568</v>
       </c>
-      <c r="B325" t="s">
-        <v>569</v>
-      </c>
       <c r="D325" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B326" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D326" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B327" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D327" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B328" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D328" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B329" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D329" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B330" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D330" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B331" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D331" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B332" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D332" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>576</v>
+      </c>
+      <c r="B333" t="s">
         <v>577</v>
       </c>
-      <c r="B333" t="s">
-        <v>578</v>
-      </c>
       <c r="D333" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B334" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D334" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B335" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D335" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B336" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D336" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B337" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D337" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B338" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D338" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B339" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D339" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B340" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D340" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>585</v>
+      </c>
+      <c r="B341" t="s">
         <v>586</v>
       </c>
-      <c r="B341" t="s">
-        <v>587</v>
-      </c>
       <c r="D341" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B342" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D342" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B343" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D343" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>588</v>
+      </c>
+      <c r="B344" t="s">
         <v>589</v>
       </c>
-      <c r="B344" t="s">
-        <v>590</v>
-      </c>
       <c r="D344" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B345" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D345" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B346" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D346" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B347" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D347" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B348" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D348" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B349" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D349" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
+        <v>595</v>
+      </c>
+      <c r="B350" t="s">
         <v>596</v>
       </c>
-      <c r="B350" t="s">
-        <v>597</v>
-      </c>
       <c r="D350" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B351" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D351" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B352" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D352" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B353" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D353" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B354" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D354" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B355" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D355" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B356" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D356" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B357" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D357" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/reconcile.xlsx
+++ b/reconcile.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlassourd\Documents\EITI Data project - DRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rev_codes" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,173 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="D118" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Il un probleme ici. Il faut distinguer la cession des parts des sociétés publiques de celle des parts de l'Etat. Je ne sais pas desquelles s'agit-il ici. Les amis de l'ITIE m'ont avoué la difficulté de faire entrer tous les revenus/paiements des sociétés publiques dans les categories/sous-ensembles. Je le dis dans la perspective d'alnalyse de qu'est-ce qui va au gouvernement et aux sociétés publiques. Toutefois, ca rentre dans la catégorie indiquée ici. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D120" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Voir mon commentaire supra. Je n'ai pas connaissance d'une compagnie ou l'Etat a vendu/cede ses parts. Tres souvent ce sont les sociétés publiques qui le font. Une fois de plus ca rentre dans catégorie mais je le dis dans la perspective d'analyse de la part des EPE </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D121" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Meme commentaire supra</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Thomas Lassourd</author>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="A135" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Thomas Lassourd:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Est-ce que KCC et Katanga Mining est le meme projet?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A149" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Je viens de me realiser à travers la lecture des rapports ITIE que Ivanhoe est une entité à part differente de Kico et Kamoa SA. En gros, il ya trois entités: Kico, Kamoa SA et Ivanhoe. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B149" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ivanhoe and Kipushi corporation are different.  Kipushi is a JV company while Invanhoe a canadian company so I suggest to separe them.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="735">
   <si>
     <t>Revenue Stream: 1112E1 [Ordinary taxes on income, profits and capital gains] - Acompte provisionnel de l&amp;#039;IBP</t>
   </si>
@@ -352,9 +517,6 @@
     <t xml:space="preserve"> Redevance Superficiaire/Frais de passage</t>
   </si>
   <si>
-    <t xml:space="preserve"> Vente de Licence</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Redevances Administratives (RA)</t>
   </si>
   <si>
@@ -376,9 +538,6 @@
     <t xml:space="preserve"> Paiement contractuel sur seuil de production atteint  (500000TCU)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Rentes Mensuelles</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Accord de confidentialite</t>
   </si>
   <si>
@@ -427,9 +586,6 @@
     <t xml:space="preserve">1415E4 </t>
   </si>
   <si>
-    <t xml:space="preserve">1415E5 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ordinary taxes on income, profits and capital gains </t>
   </si>
   <si>
@@ -466,9 +622,6 @@
     <t xml:space="preserve">Compulsory transfers to government (infrastructure and other) </t>
   </si>
   <si>
-    <t xml:space="preserve">Other rent payments </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sales of goods and services by government units </t>
   </si>
   <si>
@@ -526,9 +679,6 @@
     <t>Revenue Stream: 116E [Other taxes payable by natural resource companies] - Frais de renonciation au droit de préemption</t>
   </si>
   <si>
-    <t xml:space="preserve"> Frais de renonciation au droit de préemption</t>
-  </si>
-  <si>
     <t>Revenue Stream: 116E [Other taxes payable by natural resource companies] - Taxe concentrés</t>
   </si>
   <si>
@@ -640,9 +790,6 @@
     <t>Marge distribuable (Profit-Oil Etat Puissance Publique)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Redevance supplémentaires sur les réserves additionnelles</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Indemnite forfaitaire</t>
   </si>
   <si>
@@ -664,9 +811,6 @@
     <t>African Minerals (Barbados) Limited SPRL</t>
   </si>
   <si>
-    <t>African Minerals</t>
-  </si>
-  <si>
     <t>Mining</t>
   </si>
   <si>
@@ -808,9 +952,6 @@
     <t>METALKOL</t>
   </si>
   <si>
-    <t>Compagnie de Traitement des Rejets de Kingamyambo (METALKOL)</t>
-  </si>
-  <si>
     <t>COMPAGNIE DE TRAITEMENT DES REJETS DE KINGAYAMBO</t>
   </si>
   <si>
@@ -1084,9 +1225,6 @@
     <t>KAMOA COPPER SA</t>
   </si>
   <si>
-    <t>Kamoa Copper (ex African Minerals Barbados)</t>
-  </si>
-  <si>
     <t>KAMOA COPPER SA (ex. BARBADOS)</t>
   </si>
   <si>
@@ -1669,9 +1807,6 @@
     <t>SOKIMO Sarl</t>
   </si>
   <si>
-    <t>SOCIeTe MINIeRE DE KOLWEZI</t>
-  </si>
-  <si>
     <t>Société Minière de Kolwezi (SMK)</t>
   </si>
   <si>
@@ -1792,9 +1927,6 @@
     <t>TENKE FUNGURUME MINING SA</t>
   </si>
   <si>
-    <t>Tenke Fungurume Mining (TFM)</t>
-  </si>
-  <si>
     <t>TFM</t>
   </si>
   <si>
@@ -1813,9 +1945,6 @@
     <t>TAWANGIZA MINING SA</t>
   </si>
   <si>
-    <t>Twangiza Mining (Twangiza)</t>
-  </si>
-  <si>
     <t>TWANGIZA</t>
   </si>
   <si>
@@ -2053,9 +2182,6 @@
     <t>ex ASHANTI GOLDFIELDS KILO SARL</t>
   </si>
   <si>
-    <t>Alphaminbisie Mining SA</t>
-  </si>
-  <si>
     <t>Banro Congo Mining</t>
   </si>
   <si>
@@ -2104,12 +2230,6 @@
     <t>Mongbwalu Gold Mines</t>
   </si>
   <si>
-    <t>Mutanda ya Mukonkota Mining (MUMI)</t>
-  </si>
-  <si>
-    <t>ex-Kansuki</t>
-  </si>
-  <si>
     <t>Societe d'exploration de la Cassiterite au Katanga (SECAKAT)</t>
   </si>
   <si>
@@ -2131,9 +2251,6 @@
     <t>Société minière de BISUNZU</t>
   </si>
   <si>
-    <t>Société minière de BAKWANGA</t>
-  </si>
-  <si>
     <t>Société minière DEZIWA ECAILLE</t>
   </si>
   <si>
@@ -2152,12 +2269,6 @@
     <t>Kipushi Corporation (KICO)</t>
   </si>
   <si>
-    <t>KGL ISORO</t>
-  </si>
-  <si>
-    <t>Socitete Miniere de l'ITURI</t>
-  </si>
-  <si>
     <t>Katanga Metals</t>
   </si>
   <si>
@@ -2189,13 +2300,106 @@
   </si>
   <si>
     <t>Royalties (pour les pétroliers)</t>
+  </si>
+  <si>
+    <t>Anvil Mining Congo ( AMC)</t>
+  </si>
+  <si>
+    <t>SOCIETE MINIERE DE KOLWEZI</t>
+  </si>
+  <si>
+    <t>Cominiere</t>
+  </si>
+  <si>
+    <t>Societe d'etat</t>
+  </si>
+  <si>
+    <t>Crown Mining</t>
+  </si>
+  <si>
+    <t>Cota Mining</t>
+  </si>
+  <si>
+    <t>Congo Loyal Will Mining  (CLWM)</t>
+  </si>
+  <si>
+    <t>Avance contractuelle sur dividendes ou royalties futurs</t>
+  </si>
+  <si>
+    <t>Twangiza Mining S.A.</t>
+  </si>
+  <si>
+    <t>Tenke Fungurume Mine (TFM)</t>
+  </si>
+  <si>
+    <t>Ngayu</t>
+  </si>
+  <si>
+    <t>Namoya Mining S.A.</t>
+  </si>
+  <si>
+    <t>Mutanda</t>
+  </si>
+  <si>
+    <t>Metal Kolwezi (Metalkol)</t>
+  </si>
+  <si>
+    <t>Compagnie de Traitement des Rejets de Kingamyambo (METALKOL) ex- KMT (First Quantum Minerals)</t>
+  </si>
+  <si>
+    <t>Lugushwa Mining S.A.</t>
+  </si>
+  <si>
+    <t>Banro Corporation</t>
+  </si>
+  <si>
+    <t>KGL Isiro S.A.R.L.</t>
+  </si>
+  <si>
+    <t>Societe Miniere de l'ITURI, Barrick Gold (Holdings) Limited (formerly Randgold Resources Limited)</t>
+  </si>
+  <si>
+    <t>Kamoa-Kakula</t>
+  </si>
+  <si>
+    <t>Kamoto Copper Company S.A.R.L.</t>
+  </si>
+  <si>
+    <t>Ivanhoe Mines Exploration DRC</t>
+  </si>
+  <si>
+    <t>Bisie Tin Project</t>
+  </si>
+  <si>
+    <t>Alphamin Resources Corporation</t>
+  </si>
+  <si>
+    <t>Ivanhoe Kamoa Copper (ex African Minerals Barbados)</t>
+  </si>
+  <si>
+    <t>KCC (Glencore Plc)</t>
+  </si>
+  <si>
+    <t>Mutanda ya Mukonkota Mining (MUMI) ex-Kansuki - Glencore Plc</t>
+  </si>
+  <si>
+    <t>Fonds versés a  la GCM pour la vente des scories</t>
+  </si>
+  <si>
+    <t>Redevance supplémentaires sur les réserves additionnelles</t>
+  </si>
+  <si>
+    <t>Vente de Licence</t>
+  </si>
+  <si>
+    <t>Frais de renonciation au droit de préemption</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2204,9 +2408,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2232,9 +2489,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2531,188 +2795,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="137" style="1" customWidth="1"/>
+    <col min="1" max="1" width="102.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
+      <c r="A2" t="s">
+        <v>641</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>669</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>669</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>653</v>
+      <c r="A9" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>192</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>206</v>
+        <v>657</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>110</v>
@@ -2720,86 +2984,86 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>665</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>623</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>53</v>
+      <c r="A16" t="s">
+        <v>630</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>642</v>
+      <c r="A17" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>54</v>
+      <c r="A18" t="s">
+        <v>605</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>116</v>
+        <v>653</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2807,13 +3071,13 @@
         <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2821,13 +3085,13 @@
         <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2835,27 +3099,27 @@
         <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2863,13 +3127,13 @@
         <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2877,13 +3141,13 @@
         <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2891,13 +3155,13 @@
         <v>73</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2905,13 +3169,13 @@
         <v>74</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2919,83 +3183,83 @@
         <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>649</v>
+      <c r="A28" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>667</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>180</v>
+      <c r="A29" t="s">
+        <v>638</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>160</v>
+        <v>655</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3006,10 +3270,10 @@
         <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3020,570 +3284,570 @@
         <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>7</v>
+      <c r="A37" t="s">
+        <v>632</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>644</v>
+      <c r="A40" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>645</v>
+      <c r="A41" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>671</v>
+        <v>130</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>658</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>671</v>
+        <v>130</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>658</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>619</v>
+      <c r="A48" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>132</v>
+        <v>659</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>195</v>
+      <c r="A51" t="s">
+        <v>614</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>132</v>
+        <v>659</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
+      <c r="A52" t="s">
+        <v>633</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>132</v>
+        <v>659</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>55</v>
+      <c r="A54" t="s">
+        <v>639</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>671</v>
+        <v>130</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>658</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>671</v>
+        <v>130</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>658</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>658</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>658</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>646</v>
+      <c r="A59" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>658</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>658</v>
+        <v>711</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>68</v>
+      <c r="A61" t="s">
+        <v>607</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>658</v>
+        <v>731</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>132</v>
+        <v>659</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>191</v>
+        <v>734</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>132</v>
+        <v>659</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>121</v>
+        <v>646</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>132</v>
+        <v>659</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>121</v>
+        <v>646</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>132</v>
+        <v>659</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>121</v>
+        <v>646</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>613</v>
+      <c r="A66" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>126</v>
+        <v>659</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>106</v>
+        <v>646</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>5</v>
+      <c r="A68" t="s">
+        <v>634</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>107</v>
+        <v>646</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>187</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>184</v>
+        <v>732</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>105</v>
+        <v>659</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>187</v>
+        <v>733</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>80</v>
+      <c r="A73" t="s">
+        <v>601</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>122</v>
+        <v>643</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3594,7 +3858,7 @@
         <v>105</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>106</v>
@@ -3602,13 +3866,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>107</v>
@@ -3616,419 +3880,419 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>668</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>668</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>668</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>639</v>
+      <c r="A87" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>640</v>
+      <c r="A88" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>171</v>
+        <v>656</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>171</v>
+        <v>656</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>662</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>638</v>
+      <c r="A93" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>662</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>165</v>
+        <v>650</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>164</v>
+      <c r="A98" t="s">
+        <v>626</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>165</v>
+        <v>650</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>13</v>
+      <c r="A99" t="s">
+        <v>608</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>108</v>
+        <v>658</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>14</v>
+      <c r="A100" t="s">
+        <v>609</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>659</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>624</v>
+      <c r="A102" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>659</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>625</v>
+      <c r="A103" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>659</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>626</v>
+      <c r="A105" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>108</v>
@@ -4036,548 +4300,548 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>21</v>
+      <c r="A108" t="s">
+        <v>615</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>628</v>
+      <c r="A110" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>109</v>
+        <v>647</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>154</v>
+        <v>647</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>0</v>
+      <c r="A115" t="s">
+        <v>612</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>152</v>
+        <v>647</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>156</v>
+        <v>647</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>610</v>
+      <c r="A117" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>161</v>
+      <c r="A118" t="s">
+        <v>597</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>1</v>
+      <c r="A119" t="s">
+        <v>598</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>654</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>611</v>
+      <c r="A120" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>654</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>612</v>
+      <c r="A121" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>654</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>2</v>
+      <c r="A122" t="s">
+        <v>631</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>654</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>654</v>
+        <v>198</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>203</v>
+        <v>645</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>9</v>
+      <c r="A126" t="s">
+        <v>604</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>618</v>
+      <c r="A128" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>47</v>
+      <c r="A129" t="s">
+        <v>599</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>156</v>
+        <v>642</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>643</v>
+        <v>600</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>156</v>
+        <v>642</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>651</v>
+      <c r="A131" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D131" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>636</v>
-      </c>
       <c r="B132" s="1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>37</v>
+        <v>625</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>155</v>
+        <v>652</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>166</v>
+      <c r="A135" t="s">
+        <v>636</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>167</v>
+        <v>652</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>38</v>
+      <c r="A136" t="s">
+        <v>37</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>648</v>
+      <c r="A144" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>664</v>
+        <v>112</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4588,10 +4852,10 @@
         <v>102</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4602,80 +4866,80 @@
         <v>102</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4683,13 +4947,13 @@
         <v>62</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4697,41 +4961,41 @@
         <v>63</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4742,38 +5006,38 @@
         <v>103</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>652</v>
+      <c r="A158" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>96</v>
+      <c r="A159" t="s">
+        <v>640</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4784,24 +5048,24 @@
         <v>101</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4812,10 +5076,10 @@
         <v>101</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4826,52 +5090,52 @@
         <v>101</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4882,41 +5146,43 @@
         <v>97</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D358">
-    <sortCondition ref="A2:A358"/>
+  <sortState ref="A2:D168">
+    <sortCondition ref="C2:C168"/>
+    <sortCondition ref="D2:D168"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4928,4049 +5194,4122 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>723</v>
+      </c>
+      <c r="C2" t="s">
+        <v>728</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>676</v>
+        <v>726</v>
+      </c>
+      <c r="C3" t="s">
+        <v>727</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B9" t="s">
-        <v>677</v>
+        <v>664</v>
+      </c>
+      <c r="C9" t="s">
+        <v>720</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
-        <v>677</v>
+        <v>664</v>
+      </c>
+      <c r="C10" t="s">
+        <v>720</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B16" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="D16" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B17" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B18" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D19" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="D21" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D22" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D24" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B25" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="C25" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B26" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="C26" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B27" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="C27" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="D27" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B28" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="C28" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="D28" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B29" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="C29" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="D29" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B30" t="s">
-        <v>240</v>
+        <v>710</v>
       </c>
       <c r="D30" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B31" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D31" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D32" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B33" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D33" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D34" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B36" t="s">
-        <v>261</v>
+        <v>717</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>718</v>
       </c>
       <c r="D36" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B37" t="s">
-        <v>261</v>
+        <v>717</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>718</v>
       </c>
       <c r="D37" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="B38" t="s">
-        <v>261</v>
+        <v>717</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>718</v>
       </c>
       <c r="D38" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="B39" t="s">
-        <v>261</v>
+        <v>717</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>718</v>
       </c>
       <c r="D39" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B40" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="D40" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B41" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="D41" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B42" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D42" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B43" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D43" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B44" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B45" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B46" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="D46" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="D47" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D48" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D49" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>269</v>
-      </c>
-      <c r="B50" t="s">
-        <v>267</v>
+        <v>261</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="C50" t="s">
+        <v>707</v>
       </c>
       <c r="D50" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B51" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D51" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B52" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B53" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="D53" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B54" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B55" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="D55" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B56" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D56" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B57" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D57" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B58" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B59" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D59" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B60" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D60" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B61" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="C61" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B62" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="C62" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D62" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B63" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="C63" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="D63" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B64" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D64" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B65" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D65" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B66" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D66" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B67" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D67" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B68" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D68" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B69" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="D69" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B70" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="D70" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B71" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="D71" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B72" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="D72" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B73" t="s">
-        <v>291</v>
+        <v>710</v>
       </c>
       <c r="D73" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B74" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="D74" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B75" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="D75" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B76" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="D76" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B77" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="D77" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B78" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="D78" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B79" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D79" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="B80" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D80" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B81" t="s">
-        <v>293</v>
+        <v>709</v>
       </c>
       <c r="D81" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B82" t="s">
-        <v>294</v>
+        <v>708</v>
       </c>
       <c r="D82" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B83" t="s">
-        <v>295</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C83" s="4"/>
       <c r="D83" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B84" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D84" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B85" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D85" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B86" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D86" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B87" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D87" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B88" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D88" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B89" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D89" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B90" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D90" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B91" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D91" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B92" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D92" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B93" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D93" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B94" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D94" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B95" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D95" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B96" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D96" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B97" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D97" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B98" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D98" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B99" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D99" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B100" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D100" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B101" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D101" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B102" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D102" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B103" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D103" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B104" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D104" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B105" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="D105" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B106" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="D106" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B107" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D107" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B108" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D108" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B109" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D109" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B110" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D110" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B111" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D111" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B112" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D112" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B113" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D113" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B114" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D114" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B115" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D115" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B116" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D116" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B117" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D117" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B118" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D118" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B119" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D119" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B120" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D120" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B121" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D121" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B122" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D122" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B123" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D123" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B124" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D124" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B125" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D125" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B126" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D126" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B127" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D127" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B128" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D128" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B129" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D129" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B130" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="D130" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B131" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="D131" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B132" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="D132" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B133" t="s">
-        <v>353</v>
+        <v>723</v>
+      </c>
+      <c r="C133" t="s">
+        <v>728</v>
       </c>
       <c r="D133" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B134" t="s">
-        <v>353</v>
+        <v>723</v>
+      </c>
+      <c r="C134" t="s">
+        <v>728</v>
       </c>
       <c r="D134" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B135" t="s">
-        <v>356</v>
+        <v>724</v>
+      </c>
+      <c r="C135" t="s">
+        <v>729</v>
       </c>
       <c r="D135" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B136" t="s">
-        <v>356</v>
+        <v>724</v>
+      </c>
+      <c r="C136" t="s">
+        <v>729</v>
       </c>
       <c r="D136" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B137" t="s">
-        <v>356</v>
+        <v>724</v>
+      </c>
+      <c r="C137" t="s">
+        <v>729</v>
       </c>
       <c r="D137" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B138" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D138" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B139" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D139" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B140" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="D140" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B141" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="D141" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B142" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="C142" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="D142" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B143" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="C143" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="D143" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B144" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="C144" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="D144" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B145" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="C145" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="D145" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B146" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="C146" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="D146" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B147" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="D147" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B148" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="D148" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>348</v>
-      </c>
-      <c r="B149" t="s">
-        <v>708</v>
+        <v>340</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>725</v>
       </c>
       <c r="D149" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>350</v>
-      </c>
-      <c r="B150" t="s">
-        <v>708</v>
+        <v>342</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>725</v>
       </c>
       <c r="D150" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>351</v>
-      </c>
-      <c r="B151" t="s">
-        <v>708</v>
+        <v>343</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>725</v>
       </c>
       <c r="D151" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B152" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="D152" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B153" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="D153" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B154" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="D154" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B155" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="D155" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B156" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="C156" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="D156" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B157" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="C157" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="D157" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B158" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="C158" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="D158" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B159" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="C159" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="D159" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B160" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="C160" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="D160" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="B161" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="C161" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="D161" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B162" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="D162" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B163" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="D163" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B164" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D164" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B165" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D165" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B166" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D166" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B167" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D167" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B168" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D168" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B169" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D169" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B170" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="D170" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B171" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="D171" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B172" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D172" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B173" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="D173" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B174" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="D174" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B175" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D175" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B176" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D176" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B177" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D177" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B178" t="s">
-        <v>719</v>
+        <v>714</v>
+      </c>
+      <c r="C178" t="s">
+        <v>701</v>
       </c>
       <c r="D178" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B179" t="s">
-        <v>719</v>
+        <v>714</v>
+      </c>
+      <c r="C179" t="s">
+        <v>701</v>
       </c>
       <c r="D179" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B180" t="s">
-        <v>719</v>
+        <v>714</v>
+      </c>
+      <c r="C180" t="s">
+        <v>701</v>
       </c>
       <c r="D180" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B181" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D181" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B182" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D182" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B183" t="s">
-        <v>402</v>
+        <v>719</v>
+      </c>
+      <c r="C183" t="s">
+        <v>720</v>
       </c>
       <c r="D183" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B184" t="s">
-        <v>402</v>
+        <v>719</v>
+      </c>
+      <c r="C184" t="s">
+        <v>720</v>
       </c>
       <c r="D184" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B185" t="s">
-        <v>402</v>
+        <v>719</v>
+      </c>
+      <c r="C185" t="s">
+        <v>720</v>
       </c>
       <c r="D185" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B186" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D186" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B187" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D187" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B188" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D188" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B189" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D189" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B190" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D190" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B191" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D191" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B192" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D192" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B193" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D193" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B194" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D194" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B195" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D195" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B196" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D196" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B197" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D197" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B198" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D198" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B199" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D199" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B200" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D200" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B201" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D201" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B202" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D202" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B203" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D203" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B204" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D204" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B205" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D205" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B206" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D206" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B207" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C207" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="D207" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B208" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C208" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="D208" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B209" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C209" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="D209" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B210" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C210" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="D210" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B211" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C211" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="D211" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B212" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C212" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="D212" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B213" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C213" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="D213" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>436</v>
-      </c>
-      <c r="B214" t="s">
-        <v>673</v>
+        <v>427</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>661</v>
       </c>
       <c r="C214" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="D214" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>437</v>
-      </c>
-      <c r="B215" t="s">
-        <v>673</v>
-      </c>
-      <c r="C215" t="s">
-        <v>674</v>
+        <v>428</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>704</v>
       </c>
       <c r="D215" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>438</v>
-      </c>
-      <c r="B216" t="s">
-        <v>673</v>
-      </c>
-      <c r="C216" t="s">
-        <v>674</v>
+        <v>429</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>704</v>
       </c>
       <c r="D216" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>443</v>
-      </c>
-      <c r="B217" t="s">
-        <v>692</v>
+        <v>434</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>679</v>
       </c>
       <c r="C217" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="D217" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B218" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="C218" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="D218" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B219" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="C219" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="D219" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B220" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D220" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B221" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D221" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B222" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D222" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B223" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D223" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B224" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D224" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B225" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D225" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B226" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D226" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B227" t="s">
-        <v>693</v>
-      </c>
-      <c r="C227" t="s">
-        <v>694</v>
+        <v>716</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>730</v>
       </c>
       <c r="D227" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B228" t="s">
-        <v>693</v>
-      </c>
-      <c r="C228" t="s">
-        <v>694</v>
+        <v>716</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>730</v>
       </c>
       <c r="D228" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B229" t="s">
-        <v>693</v>
-      </c>
-      <c r="C229" t="s">
-        <v>694</v>
+        <v>716</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>730</v>
       </c>
       <c r="D229" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B230" t="s">
-        <v>693</v>
-      </c>
-      <c r="C230" t="s">
-        <v>694</v>
+        <v>716</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>730</v>
       </c>
       <c r="D230" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B231" t="s">
-        <v>693</v>
-      </c>
-      <c r="C231" t="s">
-        <v>694</v>
+        <v>716</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>730</v>
       </c>
       <c r="D231" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B232" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D232" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B233" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D233" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B234" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D234" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B235" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D235" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B236" t="s">
-        <v>465</v>
+        <v>715</v>
+      </c>
+      <c r="C236" t="s">
+        <v>720</v>
       </c>
       <c r="D236" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B237" t="s">
-        <v>465</v>
+        <v>715</v>
+      </c>
+      <c r="C237" t="s">
+        <v>720</v>
       </c>
       <c r="D237" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B238" t="s">
-        <v>465</v>
+        <v>715</v>
+      </c>
+      <c r="C238" t="s">
+        <v>720</v>
       </c>
       <c r="D238" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B239" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D239" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B240" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D240" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B241" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D241" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B242" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D242" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B243" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D243" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B244" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="D244" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B245" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D245" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B246" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D246" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B247" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D247" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B248" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D248" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B249" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D249" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B250" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="D250" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B251" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D251" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B252" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D252" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B253" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="D253" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B254" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="D254" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B255" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D255" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B256" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D256" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B257" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="D257" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B258" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="D258" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="B259" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D259" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B260" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D260" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B261" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D261" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B262" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D262" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B263" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="C263" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="D263" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="B264" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="C264" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="D264" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B265" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D265" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B266" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D266" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="B267" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D267" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B268" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="D268" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B269" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="D269" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B270" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="D270" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B271" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="D271" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B272" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="D272" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B273" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D273" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B274" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D274" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B275" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D275" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B276" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D276" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B277" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="D277" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B278" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="D278" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B279" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="D279" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B280" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="D280" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B281" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D281" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B282" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D282" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B283" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D283" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B284" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D284" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B285" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D285" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B286" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D286" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B287" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="D287" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B288" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="D288" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B289" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="D289" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B290" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="D290" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B291" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="D291" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B292" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="D292" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B293" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="D293" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B294" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="D294" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="B295" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="D295" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B296" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="D296" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B297" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="D297" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B298" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D298" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B299" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D299" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B300" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D300" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B301" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D301" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B302" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D302" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B303" t="s">
-        <v>702</v>
+        <v>369</v>
       </c>
       <c r="D303" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B304" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="D304" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B305" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D305" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B306" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D306" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B307" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D307" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B308" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D308" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B309" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D309" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B310" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="D310" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B311" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="D311" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>548</v>
+        <v>705</v>
       </c>
       <c r="B312" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="D312" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B313" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="D313" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B314" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D314" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B315" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D315" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B316" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D316" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B317" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="D317" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B318" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="D318" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B319" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="D319" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B320" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="D320" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B321" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D321" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B322" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D322" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B323" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D323" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B324" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D324" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B325" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D325" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="B326" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D326" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B327" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D327" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B328" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D328" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B329" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D329" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B330" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D330" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B331" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="D331" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B332" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="D332" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B333" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="D333" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B334" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="D334" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B335" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="D335" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B336" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D336" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B337" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="D337" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B338" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="D338" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B339" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="D339" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B340" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="D340" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B341" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D341" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B342" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D342" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="B343" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D343" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B344" t="s">
-        <v>589</v>
+        <v>713</v>
       </c>
       <c r="D344" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B345" t="s">
-        <v>589</v>
+        <v>713</v>
       </c>
       <c r="D345" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="B346" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="D346" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="B347" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D347" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="B348" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D348" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="B349" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D349" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="B350" t="s">
-        <v>596</v>
+        <v>712</v>
+      </c>
+      <c r="C350" t="s">
+        <v>720</v>
       </c>
       <c r="D350" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="B351" t="s">
-        <v>596</v>
+        <v>712</v>
+      </c>
+      <c r="C351" t="s">
+        <v>720</v>
       </c>
       <c r="D351" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B352" t="s">
-        <v>596</v>
+        <v>712</v>
+      </c>
+      <c r="C352" t="s">
+        <v>720</v>
       </c>
       <c r="D352" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B353" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D353" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B354" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="D354" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B355" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="D355" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="B356" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="D356" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="B357" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="D357" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -8978,5 +9317,7 @@
     <sortCondition ref="B2:B357"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/reconcile.xlsx
+++ b/reconcile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rev_codes" sheetId="1" r:id="rId1"/>
@@ -108,10 +108,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Thomas Lassourd</author>
-    <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A135" authorId="0" shapeId="0">
+    <comment ref="A136" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,60 +134,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A149" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Je viens de me realiser à travers la lecture des rapports ITIE que Ivanhoe est une entité à part differente de Kico et Kamoa SA. En gros, il ya trois entités: Kico, Kamoa SA et Ivanhoe. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B149" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Ivanhoe and Kipushi corporation are different.  Kipushi is a JV company while Invanhoe a canadian company so I suggest to separe them.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="734">
   <si>
     <t>Revenue Stream: 1112E1 [Ordinary taxes on income, profits and capital gains] - Acompte provisionnel de l&amp;#039;IBP</t>
   </si>
@@ -2266,9 +2217,6 @@
     <t>Kibali Gold Mines</t>
   </si>
   <si>
-    <t>Kipushi Corporation (KICO)</t>
-  </si>
-  <si>
     <t>Katanga Metals</t>
   </si>
   <si>
@@ -2344,9 +2292,6 @@
     <t>Metal Kolwezi (Metalkol)</t>
   </si>
   <si>
-    <t>Compagnie de Traitement des Rejets de Kingamyambo (METALKOL) ex- KMT (First Quantum Minerals)</t>
-  </si>
-  <si>
     <t>Lugushwa Mining S.A.</t>
   </si>
   <si>
@@ -2356,15 +2301,9 @@
     <t>KGL Isiro S.A.R.L.</t>
   </si>
   <si>
-    <t>Societe Miniere de l'ITURI, Barrick Gold (Holdings) Limited (formerly Randgold Resources Limited)</t>
-  </si>
-  <si>
     <t>Kamoa-Kakula</t>
   </si>
   <si>
-    <t>Kamoto Copper Company S.A.R.L.</t>
-  </si>
-  <si>
     <t>Ivanhoe Mines Exploration DRC</t>
   </si>
   <si>
@@ -2374,15 +2313,6 @@
     <t>Alphamin Resources Corporation</t>
   </si>
   <si>
-    <t>Ivanhoe Kamoa Copper (ex African Minerals Barbados)</t>
-  </si>
-  <si>
-    <t>KCC (Glencore Plc)</t>
-  </si>
-  <si>
-    <t>Mutanda ya Mukonkota Mining (MUMI) ex-Kansuki - Glencore Plc</t>
-  </si>
-  <si>
     <t>Fonds versés a  la GCM pour la vente des scories</t>
   </si>
   <si>
@@ -2393,13 +2323,31 @@
   </si>
   <si>
     <t>Frais de renonciation au droit de préemption</t>
+  </si>
+  <si>
+    <t>Ivanhoe Mines Limited</t>
+  </si>
+  <si>
+    <t>Kipushi</t>
+  </si>
+  <si>
+    <t>Eurasian Resources Group</t>
+  </si>
+  <si>
+    <t>Glencore PLC</t>
+  </si>
+  <si>
+    <t>Lundin Mining Corporation</t>
+  </si>
+  <si>
+    <t>Barrick Gold (Holdings) Limited (formerly Randgold Resources Limited)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2415,23 +2363,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2489,17 +2423,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2798,7 +2727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B142" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
@@ -3651,7 +3580,7 @@
         <v>147</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3665,7 +3594,7 @@
         <v>147</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3679,7 +3608,7 @@
         <v>147</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3805,7 +3734,7 @@
         <v>147</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3819,7 +3748,7 @@
         <v>147</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4880,7 +4809,7 @@
         <v>127</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>170</v>
@@ -4894,7 +4823,7 @@
         <v>127</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>170</v>
@@ -4908,7 +4837,7 @@
         <v>127</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>170</v>
@@ -4922,7 +4851,7 @@
         <v>127</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>189</v>
@@ -4936,7 +4865,7 @@
         <v>127</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>189</v>
@@ -4950,7 +4879,7 @@
         <v>127</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>189</v>
@@ -4964,7 +4893,7 @@
         <v>127</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>189</v>
@@ -4978,7 +4907,7 @@
         <v>127</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>189</v>
@@ -5181,8 +5110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D357"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A340" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C348" sqref="C348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5208,13 +5137,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>723</v>
-      </c>
-      <c r="C2" t="s">
-        <v>728</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
         <v>207</v>
@@ -5222,13 +5148,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>726</v>
-      </c>
-      <c r="C3" t="s">
-        <v>727</v>
+        <v>209</v>
       </c>
       <c r="D3" t="s">
         <v>207</v>
@@ -5236,10 +5159,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
         <v>207</v>
@@ -5247,10 +5170,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
         <v>207</v>
@@ -5258,10 +5181,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" t="s">
-        <v>212</v>
+        <v>428</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>703</v>
       </c>
       <c r="D6" t="s">
         <v>207</v>
@@ -5269,10 +5192,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" t="s">
-        <v>212</v>
+        <v>429</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>703</v>
       </c>
       <c r="D7" t="s">
         <v>207</v>
@@ -5297,7 +5220,7 @@
         <v>664</v>
       </c>
       <c r="C9" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D9" t="s">
         <v>207</v>
@@ -5311,7 +5234,7 @@
         <v>664</v>
       </c>
       <c r="C10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D10" t="s">
         <v>207</v>
@@ -5319,10 +5242,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>722</v>
+      </c>
+      <c r="C11" t="s">
+        <v>723</v>
       </c>
       <c r="D11" t="s">
         <v>207</v>
@@ -5330,10 +5256,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s">
         <v>207</v>
@@ -5341,7 +5267,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
         <v>218</v>
@@ -5352,7 +5278,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
         <v>218</v>
@@ -5363,10 +5289,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D15" t="s">
         <v>207</v>
@@ -5374,10 +5300,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B16" t="s">
-        <v>696</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
         <v>207</v>
@@ -5385,10 +5311,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
-        <v>696</v>
+        <v>695</v>
+      </c>
+      <c r="C17" t="s">
+        <v>730</v>
       </c>
       <c r="D17" t="s">
         <v>207</v>
@@ -5396,10 +5325,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s">
-        <v>696</v>
+        <v>695</v>
+      </c>
+      <c r="C18" t="s">
+        <v>730</v>
       </c>
       <c r="D18" t="s">
         <v>207</v>
@@ -5407,10 +5339,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>695</v>
+      </c>
+      <c r="C19" t="s">
+        <v>730</v>
       </c>
       <c r="D19" t="s">
         <v>207</v>
@@ -5418,10 +5353,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
-        <v>697</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s">
         <v>207</v>
@@ -5429,10 +5364,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D21" t="s">
         <v>207</v>
@@ -5440,18 +5375,18 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s">
-        <v>229</v>
+        <v>696</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s">
         <v>229</v>
@@ -5462,7 +5397,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s">
         <v>229</v>
@@ -5473,21 +5408,18 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>406</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s">
-        <v>678</v>
-      </c>
-      <c r="C25" t="s">
-        <v>677</v>
+        <v>229</v>
       </c>
       <c r="D25" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B26" t="s">
         <v>678</v>
@@ -5501,7 +5433,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B27" t="s">
         <v>678</v>
@@ -5515,7 +5447,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B28" t="s">
         <v>678</v>
@@ -5529,7 +5461,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B29" t="s">
         <v>678</v>
@@ -5543,10 +5475,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>233</v>
+        <v>410</v>
       </c>
       <c r="B30" t="s">
-        <v>710</v>
+        <v>678</v>
+      </c>
+      <c r="C30" t="s">
+        <v>677</v>
       </c>
       <c r="D30" t="s">
         <v>207</v>
@@ -5609,13 +5544,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>254</v>
-      </c>
-      <c r="B36" t="s">
-        <v>717</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>718</v>
+        <v>261</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C36" t="s">
+        <v>706</v>
       </c>
       <c r="D36" t="s">
         <v>207</v>
@@ -5623,13 +5558,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B37" t="s">
-        <v>717</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>718</v>
+        <v>668</v>
       </c>
       <c r="D37" t="s">
         <v>207</v>
@@ -5637,13 +5569,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>593</v>
+        <v>269</v>
       </c>
       <c r="B38" t="s">
-        <v>717</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>718</v>
+        <v>668</v>
       </c>
       <c r="D38" t="s">
         <v>207</v>
@@ -5651,13 +5580,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>592</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s">
-        <v>717</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>718</v>
+        <v>256</v>
       </c>
       <c r="D39" t="s">
         <v>207</v>
@@ -5665,10 +5591,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B40" t="s">
-        <v>668</v>
+        <v>256</v>
       </c>
       <c r="D40" t="s">
         <v>207</v>
@@ -5676,10 +5602,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="B41" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D41" t="s">
         <v>207</v>
@@ -5687,10 +5613,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s">
-        <v>256</v>
+        <v>666</v>
       </c>
       <c r="D42" t="s">
         <v>207</v>
@@ -5698,10 +5624,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B43" t="s">
-        <v>256</v>
+        <v>666</v>
       </c>
       <c r="D43" t="s">
         <v>207</v>
@@ -5709,7 +5635,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B44" t="s">
         <v>666</v>
@@ -5720,10 +5646,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B45" t="s">
-        <v>666</v>
+        <v>259</v>
       </c>
       <c r="D45" t="s">
         <v>207</v>
@@ -5731,10 +5657,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="B46" t="s">
-        <v>666</v>
+        <v>259</v>
       </c>
       <c r="D46" t="s">
         <v>207</v>
@@ -5742,10 +5668,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B47" t="s">
-        <v>666</v>
+        <v>259</v>
       </c>
       <c r="D47" t="s">
         <v>207</v>
@@ -5753,10 +5679,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B48" t="s">
-        <v>259</v>
+        <v>667</v>
       </c>
       <c r="D48" t="s">
         <v>207</v>
@@ -5764,10 +5690,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B49" t="s">
-        <v>259</v>
+        <v>667</v>
       </c>
       <c r="D49" t="s">
         <v>207</v>
@@ -5775,13 +5701,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>261</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="C50" t="s">
-        <v>707</v>
+        <v>251</v>
+      </c>
+      <c r="B50" t="s">
+        <v>667</v>
       </c>
       <c r="D50" t="s">
         <v>207</v>
@@ -5789,10 +5712,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B51" t="s">
-        <v>259</v>
+        <v>667</v>
       </c>
       <c r="D51" t="s">
         <v>207</v>
@@ -5800,10 +5723,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B52" t="s">
-        <v>667</v>
+        <v>264</v>
       </c>
       <c r="D52" t="s">
         <v>207</v>
@@ -5811,10 +5734,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B53" t="s">
-        <v>667</v>
+        <v>264</v>
       </c>
       <c r="D53" t="s">
         <v>207</v>
@@ -5822,10 +5745,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B54" t="s">
-        <v>667</v>
+        <v>266</v>
       </c>
       <c r="D54" t="s">
         <v>207</v>
@@ -5833,10 +5756,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="B55" t="s">
-        <v>667</v>
+        <v>266</v>
       </c>
       <c r="D55" t="s">
         <v>207</v>
@@ -5844,10 +5767,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B56" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D56" t="s">
         <v>207</v>
@@ -5855,10 +5778,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B57" t="s">
-        <v>264</v>
+        <v>669</v>
+      </c>
+      <c r="C57" t="s">
+        <v>670</v>
       </c>
       <c r="D57" t="s">
         <v>207</v>
@@ -5866,10 +5792,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B58" t="s">
-        <v>266</v>
+        <v>669</v>
+      </c>
+      <c r="C58" t="s">
+        <v>670</v>
       </c>
       <c r="D58" t="s">
         <v>207</v>
@@ -5877,10 +5806,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B59" t="s">
-        <v>266</v>
+        <v>669</v>
+      </c>
+      <c r="C59" t="s">
+        <v>670</v>
       </c>
       <c r="D59" t="s">
         <v>207</v>
@@ -5888,10 +5820,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B60" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D60" t="s">
         <v>207</v>
@@ -5899,13 +5831,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B61" t="s">
-        <v>669</v>
-      </c>
-      <c r="C61" t="s">
-        <v>670</v>
+        <v>274</v>
       </c>
       <c r="D61" t="s">
         <v>207</v>
@@ -5913,13 +5842,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B62" t="s">
-        <v>669</v>
-      </c>
-      <c r="C62" t="s">
-        <v>670</v>
+        <v>276</v>
       </c>
       <c r="D62" t="s">
         <v>207</v>
@@ -5927,13 +5853,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B63" t="s">
-        <v>669</v>
-      </c>
-      <c r="C63" t="s">
-        <v>670</v>
+        <v>276</v>
       </c>
       <c r="D63" t="s">
         <v>207</v>
@@ -5941,10 +5864,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B64" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D64" t="s">
         <v>207</v>
@@ -5952,10 +5875,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B65" t="s">
-        <v>274</v>
+        <v>697</v>
       </c>
       <c r="D65" t="s">
         <v>207</v>
@@ -5963,10 +5886,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B66" t="s">
-        <v>276</v>
+        <v>697</v>
       </c>
       <c r="D66" t="s">
         <v>207</v>
@@ -5974,10 +5897,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B67" t="s">
-        <v>276</v>
+        <v>697</v>
       </c>
       <c r="D67" t="s">
         <v>207</v>
@@ -5985,10 +5908,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B68" t="s">
-        <v>276</v>
+        <v>697</v>
       </c>
       <c r="D68" t="s">
         <v>207</v>
@@ -5996,10 +5919,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="B69" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="D69" t="s">
         <v>207</v>
@@ -6007,10 +5930,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B70" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="D70" t="s">
         <v>207</v>
@@ -6018,10 +5941,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="B71" t="s">
-        <v>698</v>
+        <v>665</v>
       </c>
       <c r="D71" t="s">
         <v>207</v>
@@ -6029,10 +5952,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="B72" t="s">
-        <v>698</v>
+        <v>665</v>
       </c>
       <c r="D72" t="s">
         <v>207</v>
@@ -6040,10 +5963,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="B73" t="s">
-        <v>710</v>
+        <v>665</v>
       </c>
       <c r="D73" t="s">
         <v>207</v>
@@ -6051,7 +5974,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B74" t="s">
         <v>665</v>
@@ -6062,7 +5985,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B75" t="s">
         <v>665</v>
@@ -6073,10 +5996,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="B76" t="s">
-        <v>665</v>
+        <v>284</v>
       </c>
       <c r="D76" t="s">
         <v>207</v>
@@ -6084,10 +6007,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>242</v>
+        <v>595</v>
       </c>
       <c r="B77" t="s">
-        <v>665</v>
+        <v>284</v>
       </c>
       <c r="D77" t="s">
         <v>207</v>
@@ -6095,10 +6018,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="B78" t="s">
-        <v>665</v>
+        <v>708</v>
       </c>
       <c r="D78" t="s">
         <v>207</v>
@@ -6106,10 +6029,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B79" t="s">
-        <v>284</v>
+        <v>707</v>
       </c>
       <c r="D79" t="s">
         <v>207</v>
@@ -6117,10 +6040,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>595</v>
+        <v>288</v>
       </c>
       <c r="B80" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D80" t="s">
         <v>207</v>
@@ -6128,10 +6051,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B81" t="s">
-        <v>709</v>
+        <v>288</v>
       </c>
       <c r="D81" t="s">
         <v>207</v>
@@ -6139,10 +6062,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B82" t="s">
-        <v>708</v>
+        <v>288</v>
       </c>
       <c r="D82" t="s">
         <v>207</v>
@@ -6150,22 +6073,21 @@
     </row>
     <row r="83" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B83" t="s">
-        <v>347</v>
-      </c>
-      <c r="C83" s="4"/>
+        <v>292</v>
+      </c>
       <c r="D83" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B84" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D84" t="s">
         <v>207</v>
@@ -6173,10 +6095,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B85" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D85" t="s">
         <v>207</v>
@@ -6184,10 +6106,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B86" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D86" t="s">
         <v>207</v>
@@ -6195,10 +6117,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B87" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D87" t="s">
         <v>207</v>
@@ -6206,10 +6128,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B88" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D88" t="s">
         <v>207</v>
@@ -6217,10 +6139,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B89" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D89" t="s">
         <v>207</v>
@@ -6228,10 +6150,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B90" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D90" t="s">
         <v>207</v>
@@ -6239,10 +6161,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B91" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D91" t="s">
         <v>207</v>
@@ -6250,10 +6172,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B92" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D92" t="s">
         <v>207</v>
@@ -6261,21 +6183,21 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B93" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D93" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B94" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D94" t="s">
         <v>207</v>
@@ -6283,10 +6205,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B95" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D95" t="s">
         <v>207</v>
@@ -6294,10 +6216,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B96" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D96" t="s">
         <v>207</v>
@@ -6305,21 +6227,21 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B97" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D97" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B98" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D98" t="s">
         <v>207</v>
@@ -6327,10 +6249,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B99" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D99" t="s">
         <v>207</v>
@@ -6338,10 +6260,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B100" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D100" t="s">
         <v>207</v>
@@ -6349,10 +6271,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B101" t="s">
-        <v>306</v>
+        <v>698</v>
+      </c>
+      <c r="C101" t="s">
+        <v>730</v>
       </c>
       <c r="D101" t="s">
         <v>207</v>
@@ -6360,10 +6285,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B102" t="s">
-        <v>306</v>
+        <v>698</v>
+      </c>
+      <c r="C102" t="s">
+        <v>730</v>
       </c>
       <c r="D102" t="s">
         <v>207</v>
@@ -6371,10 +6299,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B103" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D103" t="s">
         <v>207</v>
@@ -6382,10 +6310,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B104" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D104" t="s">
         <v>207</v>
@@ -6393,10 +6321,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B105" t="s">
-        <v>699</v>
+        <v>314</v>
       </c>
       <c r="D105" t="s">
         <v>207</v>
@@ -6404,10 +6332,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B106" t="s">
-        <v>699</v>
+        <v>314</v>
       </c>
       <c r="D106" t="s">
         <v>207</v>
@@ -6415,10 +6343,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B107" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D107" t="s">
         <v>207</v>
@@ -6426,10 +6354,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B108" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D108" t="s">
         <v>207</v>
@@ -6437,10 +6365,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B109" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D109" t="s">
         <v>207</v>
@@ -6448,10 +6376,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B110" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D110" t="s">
         <v>207</v>
@@ -6459,10 +6387,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B111" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D111" t="s">
         <v>207</v>
@@ -6470,10 +6398,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B112" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D112" t="s">
         <v>207</v>
@@ -6481,10 +6409,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B113" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D113" t="s">
         <v>207</v>
@@ -6492,10 +6420,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B114" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D114" t="s">
         <v>207</v>
@@ -6503,10 +6431,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>322</v>
-      </c>
-      <c r="B115" t="s">
-        <v>322</v>
+        <v>340</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C115" t="s">
+        <v>728</v>
       </c>
       <c r="D115" t="s">
         <v>207</v>
@@ -6514,10 +6445,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>323</v>
-      </c>
-      <c r="B116" t="s">
-        <v>322</v>
+        <v>342</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C116" t="s">
+        <v>728</v>
       </c>
       <c r="D116" t="s">
         <v>207</v>
@@ -6525,10 +6459,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>324</v>
-      </c>
-      <c r="B117" t="s">
-        <v>322</v>
+        <v>343</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C117" t="s">
+        <v>728</v>
       </c>
       <c r="D117" t="s">
         <v>207</v>
@@ -6536,10 +6473,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>325</v>
-      </c>
-      <c r="B118" t="s">
-        <v>322</v>
+        <v>326</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="D118" t="s">
         <v>207</v>
@@ -6547,9 +6484,9 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>326</v>
-      </c>
-      <c r="B119" t="s">
+        <v>327</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>326</v>
       </c>
       <c r="D119" t="s">
@@ -6558,10 +6495,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B120" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D120" t="s">
         <v>207</v>
@@ -6569,7 +6506,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B121" t="s">
         <v>329</v>
@@ -6580,7 +6517,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B122" t="s">
         <v>329</v>
@@ -6591,10 +6528,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B123" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D123" t="s">
         <v>207</v>
@@ -6602,7 +6539,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B124" t="s">
         <v>331</v>
@@ -6613,7 +6550,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B125" t="s">
         <v>331</v>
@@ -6624,7 +6561,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B126" t="s">
         <v>331</v>
@@ -6635,10 +6572,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B127" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D127" t="s">
         <v>207</v>
@@ -6646,7 +6583,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B128" t="s">
         <v>335</v>
@@ -6657,10 +6594,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B129" t="s">
-        <v>335</v>
+        <v>694</v>
       </c>
       <c r="D129" t="s">
         <v>207</v>
@@ -6668,10 +6605,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B130" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D130" t="s">
         <v>207</v>
@@ -6679,10 +6616,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B131" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D131" t="s">
         <v>207</v>
@@ -6690,10 +6627,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>339</v>
+        <v>206</v>
       </c>
       <c r="B132" t="s">
-        <v>695</v>
+        <v>720</v>
+      </c>
+      <c r="C132" t="s">
+        <v>728</v>
       </c>
       <c r="D132" t="s">
         <v>207</v>
@@ -6704,7 +6644,7 @@
         <v>344</v>
       </c>
       <c r="B133" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C133" t="s">
         <v>728</v>
@@ -6718,7 +6658,7 @@
         <v>345</v>
       </c>
       <c r="B134" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C134" t="s">
         <v>728</v>
@@ -6729,13 +6669,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="B135" t="s">
-        <v>724</v>
+        <v>347</v>
       </c>
       <c r="C135" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D135" t="s">
         <v>207</v>
@@ -6743,13 +6683,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>346</v>
+      </c>
+      <c r="B136" t="s">
         <v>347</v>
       </c>
-      <c r="B136" t="s">
-        <v>724</v>
-      </c>
       <c r="C136" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D136" t="s">
         <v>207</v>
@@ -6757,13 +6697,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B137" t="s">
-        <v>724</v>
+        <v>347</v>
       </c>
       <c r="C137" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D137" t="s">
         <v>207</v>
@@ -6771,10 +6711,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B138" t="s">
-        <v>350</v>
+        <v>347</v>
+      </c>
+      <c r="C138" t="s">
+        <v>731</v>
       </c>
       <c r="D138" t="s">
         <v>207</v>
@@ -6782,7 +6725,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B139" t="s">
         <v>350</v>
@@ -6793,10 +6736,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B140" t="s">
-        <v>693</v>
+        <v>350</v>
       </c>
       <c r="D140" t="s">
         <v>207</v>
@@ -6804,10 +6747,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B141" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D141" t="s">
         <v>207</v>
@@ -6815,13 +6758,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B142" t="s">
-        <v>721</v>
-      </c>
-      <c r="C142" t="s">
-        <v>722</v>
+        <v>692</v>
       </c>
       <c r="D142" t="s">
         <v>207</v>
@@ -6829,13 +6769,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B143" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C143" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="D143" t="s">
         <v>207</v>
@@ -6843,13 +6783,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B144" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C144" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="D144" t="s">
         <v>207</v>
@@ -6857,13 +6797,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B145" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C145" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="D145" t="s">
         <v>207</v>
@@ -6871,13 +6811,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B146" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C146" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="D146" t="s">
         <v>207</v>
@@ -6885,10 +6825,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B147" t="s">
-        <v>691</v>
+        <v>719</v>
+      </c>
+      <c r="C147" t="s">
+        <v>733</v>
       </c>
       <c r="D147" t="s">
         <v>207</v>
@@ -6896,7 +6839,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B148" t="s">
         <v>691</v>
@@ -6907,10 +6850,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>340</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>725</v>
+        <v>360</v>
+      </c>
+      <c r="B149" t="s">
+        <v>691</v>
       </c>
       <c r="D149" t="s">
         <v>207</v>
@@ -6918,10 +6861,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>342</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>725</v>
+        <v>341</v>
+      </c>
+      <c r="B150" t="s">
+        <v>729</v>
+      </c>
+      <c r="C150" t="s">
+        <v>728</v>
       </c>
       <c r="D150" t="s">
         <v>207</v>
@@ -6929,10 +6875,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>343</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>725</v>
+        <v>361</v>
+      </c>
+      <c r="B151" t="s">
+        <v>729</v>
+      </c>
+      <c r="C151" t="s">
+        <v>728</v>
       </c>
       <c r="D151" t="s">
         <v>207</v>
@@ -6940,10 +6889,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="B152" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D152" t="s">
         <v>207</v>
@@ -6951,10 +6900,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B153" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D153" t="s">
         <v>207</v>
@@ -6962,10 +6911,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B154" t="s">
-        <v>694</v>
+        <v>671</v>
+      </c>
+      <c r="C154" t="s">
+        <v>672</v>
       </c>
       <c r="D154" t="s">
         <v>207</v>
@@ -6973,10 +6925,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B155" t="s">
-        <v>694</v>
+        <v>671</v>
+      </c>
+      <c r="C155" t="s">
+        <v>672</v>
       </c>
       <c r="D155" t="s">
         <v>207</v>
@@ -6984,7 +6939,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B156" t="s">
         <v>671</v>
@@ -6998,35 +6953,35 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>365</v>
+        <v>238</v>
       </c>
       <c r="B157" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C157" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D157" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B158" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C158" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D158" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>238</v>
+        <v>569</v>
       </c>
       <c r="B159" t="s">
         <v>673</v>
@@ -7040,38 +6995,32 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="B160" t="s">
-        <v>673</v>
-      </c>
-      <c r="C160" t="s">
-        <v>674</v>
+        <v>699</v>
       </c>
       <c r="D160" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>569</v>
+        <v>312</v>
       </c>
       <c r="B161" t="s">
-        <v>673</v>
-      </c>
-      <c r="C161" t="s">
-        <v>674</v>
+        <v>699</v>
       </c>
       <c r="D161" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="B162" t="s">
-        <v>700</v>
+        <v>369</v>
       </c>
       <c r="D162" t="s">
         <v>207</v>
@@ -7079,10 +7028,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>312</v>
+        <v>530</v>
       </c>
       <c r="B163" t="s">
-        <v>700</v>
+        <v>369</v>
       </c>
       <c r="D163" t="s">
         <v>207</v>
@@ -7090,10 +7039,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B164" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D164" t="s">
         <v>207</v>
@@ -7101,10 +7050,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B165" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D165" t="s">
         <v>207</v>
@@ -7112,7 +7061,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B166" t="s">
         <v>373</v>
@@ -7123,10 +7072,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B167" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D167" t="s">
         <v>207</v>
@@ -7134,7 +7083,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B168" t="s">
         <v>376</v>
@@ -7145,10 +7094,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B169" t="s">
-        <v>376</v>
+        <v>676</v>
       </c>
       <c r="D169" t="s">
         <v>207</v>
@@ -7156,7 +7105,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B170" t="s">
         <v>676</v>
@@ -7167,10 +7116,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B171" t="s">
-        <v>676</v>
+        <v>379</v>
       </c>
       <c r="D171" t="s">
         <v>207</v>
@@ -7178,10 +7127,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B172" t="s">
-        <v>379</v>
+        <v>675</v>
       </c>
       <c r="D172" t="s">
         <v>207</v>
@@ -7189,7 +7138,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B173" t="s">
         <v>675</v>
@@ -7200,18 +7149,18 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B174" t="s">
-        <v>675</v>
+        <v>384</v>
       </c>
       <c r="D174" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B175" t="s">
         <v>384</v>
@@ -7222,21 +7171,21 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B176" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D176" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B177" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D177" t="s">
         <v>207</v>
@@ -7244,13 +7193,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B178" t="s">
-        <v>714</v>
-      </c>
-      <c r="C178" t="s">
-        <v>701</v>
+        <v>391</v>
       </c>
       <c r="D178" t="s">
         <v>207</v>
@@ -7258,13 +7204,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B179" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C179" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="D179" t="s">
         <v>207</v>
@@ -7272,13 +7218,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B180" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C180" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="D180" t="s">
         <v>207</v>
@@ -7286,10 +7232,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B181" t="s">
-        <v>390</v>
+        <v>717</v>
+      </c>
+      <c r="C181" t="s">
+        <v>718</v>
       </c>
       <c r="D181" t="s">
         <v>207</v>
@@ -7297,10 +7246,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B182" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D182" t="s">
         <v>207</v>
@@ -7308,13 +7257,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B183" t="s">
-        <v>719</v>
-      </c>
-      <c r="C183" t="s">
-        <v>720</v>
+        <v>395</v>
       </c>
       <c r="D183" t="s">
         <v>207</v>
@@ -7322,13 +7268,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B184" t="s">
-        <v>719</v>
-      </c>
-      <c r="C184" t="s">
-        <v>720</v>
+        <v>397</v>
       </c>
       <c r="D184" t="s">
         <v>207</v>
@@ -7336,13 +7279,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B185" t="s">
-        <v>719</v>
-      </c>
-      <c r="C185" t="s">
-        <v>720</v>
+        <v>398</v>
       </c>
       <c r="D185" t="s">
         <v>207</v>
@@ -7350,10 +7290,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B186" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D186" t="s">
         <v>207</v>
@@ -7361,10 +7301,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B187" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D187" t="s">
         <v>207</v>
@@ -7372,10 +7312,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B188" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D188" t="s">
         <v>207</v>
@@ -7383,10 +7323,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B189" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D189" t="s">
         <v>207</v>
@@ -7394,10 +7334,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B190" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D190" t="s">
         <v>207</v>
@@ -7405,10 +7345,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B191" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D191" t="s">
         <v>207</v>
@@ -7416,10 +7356,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B192" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="D192" t="s">
         <v>207</v>
@@ -7427,10 +7367,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>402</v>
+        <v>254</v>
       </c>
       <c r="B193" t="s">
-        <v>403</v>
+        <v>716</v>
+      </c>
+      <c r="C193" t="s">
+        <v>730</v>
       </c>
       <c r="D193" t="s">
         <v>207</v>
@@ -7438,10 +7381,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>404</v>
+        <v>253</v>
       </c>
       <c r="B194" t="s">
-        <v>403</v>
+        <v>716</v>
+      </c>
+      <c r="C194" t="s">
+        <v>730</v>
       </c>
       <c r="D194" t="s">
         <v>207</v>
@@ -7449,10 +7395,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>405</v>
+        <v>593</v>
       </c>
       <c r="B195" t="s">
-        <v>405</v>
+        <v>716</v>
+      </c>
+      <c r="C195" t="s">
+        <v>730</v>
       </c>
       <c r="D195" t="s">
         <v>207</v>
@@ -7460,10 +7409,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>411</v>
+        <v>592</v>
       </c>
       <c r="B196" t="s">
-        <v>411</v>
+        <v>716</v>
+      </c>
+      <c r="C196" t="s">
+        <v>730</v>
       </c>
       <c r="D196" t="s">
         <v>207</v>
@@ -7681,7 +7633,7 @@
       <c r="A214" t="s">
         <v>427</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B214" s="4" t="s">
         <v>661</v>
       </c>
       <c r="C214" t="s">
@@ -7693,10 +7645,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>428</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>704</v>
+        <v>434</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="C215" t="s">
+        <v>663</v>
       </c>
       <c r="D215" t="s">
         <v>207</v>
@@ -7704,10 +7659,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>429</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>704</v>
+        <v>436</v>
+      </c>
+      <c r="B216" t="s">
+        <v>679</v>
+      </c>
+      <c r="C216" t="s">
+        <v>663</v>
       </c>
       <c r="D216" t="s">
         <v>207</v>
@@ -7715,9 +7673,9 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>434</v>
-      </c>
-      <c r="B217" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B217" t="s">
         <v>679</v>
       </c>
       <c r="C217" t="s">
@@ -7729,35 +7687,29 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B218" t="s">
-        <v>679</v>
-      </c>
-      <c r="C218" t="s">
-        <v>663</v>
+        <v>438</v>
       </c>
       <c r="D218" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B219" t="s">
-        <v>679</v>
-      </c>
-      <c r="C219" t="s">
-        <v>663</v>
+        <v>438</v>
       </c>
       <c r="D219" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B220" t="s">
         <v>438</v>
@@ -7768,7 +7720,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B221" t="s">
         <v>438</v>
@@ -7779,29 +7731,29 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B222" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D222" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B223" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D223" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B224" t="s">
         <v>443</v>
@@ -7812,10 +7764,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B225" t="s">
-        <v>443</v>
+        <v>715</v>
+      </c>
+      <c r="C225" t="s">
+        <v>731</v>
       </c>
       <c r="D225" t="s">
         <v>207</v>
@@ -7823,10 +7778,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B226" t="s">
-        <v>443</v>
+        <v>715</v>
+      </c>
+      <c r="C226" t="s">
+        <v>731</v>
       </c>
       <c r="D226" t="s">
         <v>207</v>
@@ -7834,13 +7792,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B227" t="s">
-        <v>716</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>730</v>
+        <v>715</v>
+      </c>
+      <c r="C227" t="s">
+        <v>731</v>
       </c>
       <c r="D227" t="s">
         <v>207</v>
@@ -7848,13 +7806,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B228" t="s">
-        <v>716</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>730</v>
+        <v>715</v>
+      </c>
+      <c r="C228" t="s">
+        <v>731</v>
       </c>
       <c r="D228" t="s">
         <v>207</v>
@@ -7862,13 +7820,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B229" t="s">
-        <v>716</v>
-      </c>
-      <c r="C229" s="7" t="s">
-        <v>730</v>
+        <v>715</v>
+      </c>
+      <c r="C229" t="s">
+        <v>731</v>
       </c>
       <c r="D229" t="s">
         <v>207</v>
@@ -7876,13 +7834,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B230" t="s">
-        <v>716</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>730</v>
+        <v>450</v>
       </c>
       <c r="D230" t="s">
         <v>207</v>
@@ -7890,13 +7845,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B231" t="s">
-        <v>716</v>
-      </c>
-      <c r="C231" s="7" t="s">
-        <v>730</v>
+        <v>452</v>
       </c>
       <c r="D231" t="s">
         <v>207</v>
@@ -7904,10 +7856,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B232" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D232" t="s">
         <v>207</v>
@@ -7915,7 +7867,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B233" t="s">
         <v>452</v>
@@ -7926,10 +7878,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B234" t="s">
-        <v>452</v>
+        <v>714</v>
+      </c>
+      <c r="C234" t="s">
+        <v>718</v>
       </c>
       <c r="D234" t="s">
         <v>207</v>
@@ -7937,10 +7892,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B235" t="s">
-        <v>452</v>
+        <v>714</v>
+      </c>
+      <c r="C235" t="s">
+        <v>718</v>
       </c>
       <c r="D235" t="s">
         <v>207</v>
@@ -7948,13 +7906,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B236" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C236" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D236" t="s">
         <v>207</v>
@@ -7962,27 +7920,24 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B237" t="s">
-        <v>715</v>
-      </c>
-      <c r="C237" t="s">
-        <v>720</v>
+        <v>458</v>
       </c>
       <c r="D237" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>457</v>
+        <v>387</v>
       </c>
       <c r="B238" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C238" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="D238" t="s">
         <v>207</v>
@@ -7990,29 +7945,35 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>458</v>
+        <v>388</v>
       </c>
       <c r="B239" t="s">
-        <v>458</v>
+        <v>713</v>
+      </c>
+      <c r="C239" t="s">
+        <v>700</v>
       </c>
       <c r="D239" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>459</v>
+        <v>389</v>
       </c>
       <c r="B240" t="s">
-        <v>460</v>
+        <v>713</v>
+      </c>
+      <c r="C240" t="s">
+        <v>700</v>
       </c>
       <c r="D240" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B241" t="s">
         <v>460</v>
@@ -8023,21 +7984,21 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B242" t="s">
         <v>460</v>
       </c>
       <c r="D242" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B243" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D243" t="s">
         <v>207</v>
@@ -8045,10 +8006,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B244" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D244" t="s">
         <v>207</v>
@@ -8056,18 +8017,18 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>596</v>
+        <v>463</v>
       </c>
       <c r="B245" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D245" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>465</v>
+        <v>596</v>
       </c>
       <c r="B246" t="s">
         <v>464</v>
@@ -8078,7 +8039,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B247" t="s">
         <v>464</v>
@@ -8089,18 +8050,18 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B248" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D248" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B249" t="s">
         <v>467</v>
@@ -8111,32 +8072,32 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B250" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D250" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B251" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D251" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B252" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D252" t="s">
         <v>207</v>
@@ -8144,10 +8105,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B253" t="s">
-        <v>682</v>
+        <v>471</v>
       </c>
       <c r="D253" t="s">
         <v>207</v>
@@ -8155,7 +8116,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B254" t="s">
         <v>682</v>
@@ -8166,10 +8127,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B255" t="s">
-        <v>474</v>
+        <v>682</v>
       </c>
       <c r="D255" t="s">
         <v>207</v>
@@ -8177,7 +8138,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B256" t="s">
         <v>474</v>
@@ -8188,10 +8149,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B257" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D257" t="s">
         <v>207</v>
@@ -8199,7 +8160,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B258" t="s">
         <v>476</v>
@@ -8210,10 +8171,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B259" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D259" t="s">
         <v>207</v>
@@ -8221,7 +8182,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B260" t="s">
         <v>479</v>
@@ -8232,10 +8193,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B261" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D261" t="s">
         <v>207</v>
@@ -8243,32 +8204,29 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B262" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D262" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B263" t="s">
-        <v>683</v>
-      </c>
-      <c r="C263" t="s">
-        <v>684</v>
+        <v>487</v>
       </c>
       <c r="D263" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B264" t="s">
         <v>683</v>
@@ -8282,10 +8240,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B265" t="s">
-        <v>491</v>
+        <v>683</v>
+      </c>
+      <c r="C265" t="s">
+        <v>684</v>
       </c>
       <c r="D265" t="s">
         <v>207</v>
@@ -8293,7 +8254,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B266" t="s">
         <v>491</v>
@@ -8304,7 +8265,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B267" t="s">
         <v>491</v>
@@ -8315,10 +8276,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B268" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D268" t="s">
         <v>207</v>
@@ -8326,7 +8287,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B269" t="s">
         <v>495</v>
@@ -8337,10 +8298,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B270" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D270" t="s">
         <v>207</v>
@@ -8348,7 +8309,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B271" t="s">
         <v>497</v>
@@ -8359,7 +8320,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B272" t="s">
         <v>497</v>
@@ -8370,10 +8331,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B273" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D273" t="s">
         <v>207</v>
@@ -8381,7 +8342,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B274" t="s">
         <v>501</v>
@@ -8392,10 +8353,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B275" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D275" t="s">
         <v>207</v>
@@ -8403,7 +8364,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B276" t="s">
         <v>504</v>
@@ -8414,10 +8375,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B277" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D277" t="s">
         <v>207</v>
@@ -8425,7 +8386,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B278" t="s">
         <v>507</v>
@@ -8436,7 +8397,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B279" t="s">
         <v>507</v>
@@ -8447,7 +8408,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B280" t="s">
         <v>507</v>
@@ -8458,10 +8419,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B281" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D281" t="s">
         <v>207</v>
@@ -8469,7 +8430,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B282" t="s">
         <v>512</v>
@@ -8480,7 +8441,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B283" t="s">
         <v>512</v>
@@ -8491,10 +8452,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B284" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D284" t="s">
         <v>207</v>
@@ -8502,7 +8463,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B285" t="s">
         <v>516</v>
@@ -8513,7 +8474,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B286" t="s">
         <v>516</v>
@@ -8524,10 +8485,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B287" t="s">
-        <v>685</v>
+        <v>516</v>
       </c>
       <c r="D287" t="s">
         <v>207</v>
@@ -8535,7 +8496,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B288" t="s">
         <v>685</v>
@@ -8546,7 +8507,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B289" t="s">
         <v>685</v>
@@ -8557,7 +8518,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B290" t="s">
         <v>685</v>
@@ -8568,7 +8529,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B291" t="s">
         <v>685</v>
@@ -8579,10 +8540,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="B292" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="D292" t="s">
         <v>207</v>
@@ -8590,7 +8551,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B293" t="s">
         <v>680</v>
@@ -8601,7 +8562,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B294" t="s">
         <v>680</v>
@@ -8612,7 +8573,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B295" t="s">
         <v>680</v>
@@ -8623,10 +8584,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B296" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D296" t="s">
         <v>207</v>
@@ -8634,7 +8595,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>594</v>
+        <v>486</v>
       </c>
       <c r="B297" t="s">
         <v>681</v>
@@ -8645,10 +8606,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>524</v>
+        <v>594</v>
       </c>
       <c r="B298" t="s">
-        <v>524</v>
+        <v>681</v>
       </c>
       <c r="D298" t="s">
         <v>207</v>
@@ -8656,10 +8617,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B299" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D299" t="s">
         <v>207</v>
@@ -8667,7 +8628,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B300" t="s">
         <v>526</v>
@@ -8678,10 +8639,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B301" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D301" t="s">
         <v>207</v>
@@ -8689,10 +8650,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B302" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D302" t="s">
         <v>207</v>
@@ -8700,10 +8661,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B303" t="s">
-        <v>369</v>
+        <v>529</v>
       </c>
       <c r="D303" t="s">
         <v>207</v>
@@ -8799,7 +8760,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B312" t="s">
         <v>539</v>
@@ -9154,7 +9115,10 @@
         <v>578</v>
       </c>
       <c r="B344" t="s">
-        <v>713</v>
+        <v>712</v>
+      </c>
+      <c r="C344" t="s">
+        <v>732</v>
       </c>
       <c r="D344" t="s">
         <v>207</v>
@@ -9165,7 +9129,10 @@
         <v>579</v>
       </c>
       <c r="B345" t="s">
-        <v>713</v>
+        <v>712</v>
+      </c>
+      <c r="C345" t="s">
+        <v>732</v>
       </c>
       <c r="D345" t="s">
         <v>207</v>
@@ -9220,10 +9187,10 @@
         <v>584</v>
       </c>
       <c r="B350" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C350" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D350" t="s">
         <v>207</v>
@@ -9234,10 +9201,10 @@
         <v>585</v>
       </c>
       <c r="B351" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C351" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D351" t="s">
         <v>207</v>
@@ -9248,10 +9215,10 @@
         <v>586</v>
       </c>
       <c r="B352" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C352" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D352" t="s">
         <v>207</v>

--- a/reconcile.xlsx
+++ b/reconcile.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300"/>
   </bookViews>
   <sheets>
     <sheet name="rev_codes" sheetId="1" r:id="rId1"/>
     <sheet name="company_names" sheetId="2" r:id="rId2"/>
+    <sheet name="entity_names" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">entity_names!$A$1:$B$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rev_codes!$A$1:$D$168</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,88 +25,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Administrator</author>
-  </authors>
-  <commentList>
-    <comment ref="D118" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Il un probleme ici. Il faut distinguer la cession des parts des sociétés publiques de celle des parts de l'Etat. Je ne sais pas desquelles s'agit-il ici. Les amis de l'ITIE m'ont avoué la difficulté de faire entrer tous les revenus/paiements des sociétés publiques dans les categories/sous-ensembles. Je le dis dans la perspective d'alnalyse de qu'est-ce qui va au gouvernement et aux sociétés publiques. Toutefois, ca rentre dans la catégorie indiquée ici. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D120" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Voir mon commentaire supra. Je n'ai pas connaissance d'une compagnie ou l'Etat a vendu/cede ses parts. Tres souvent ce sont les sociétés publiques qui le font. Une fois de plus ca rentre dans catégorie mais je le dis dans la perspective d'analyse de la part des EPE </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D121" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Meme commentaire supra</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Thomas Lassourd</author>
@@ -139,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="793">
   <si>
     <t>Revenue Stream: 1112E1 [Ordinary taxes on income, profits and capital gains] - Acompte provisionnel de l&amp;#039;IBP</t>
   </si>
@@ -2341,13 +2261,190 @@
   </si>
   <si>
     <t>Barrick Gold (Holdings) Limited (formerly Randgold Resources Limited)</t>
+  </si>
+  <si>
+    <t>DGI - Direction Générale des Impôts</t>
+  </si>
+  <si>
+    <t>DGRAD - Direction Générale des Recettes Administratives, participations, judiciaires et Domaniales</t>
+  </si>
+  <si>
+    <t>Gecamines</t>
+  </si>
+  <si>
+    <t>OFIDA - Office des Douanes et d’Accises</t>
+  </si>
+  <si>
+    <t>OCC - Office Congolaise de Contrôle</t>
+  </si>
+  <si>
+    <t>Unassigned</t>
+  </si>
+  <si>
+    <t>Provincial government</t>
+  </si>
+  <si>
+    <t>DGI - Direction Generale des Impots</t>
+  </si>
+  <si>
+    <t>EP - Entreprises Publiques</t>
+  </si>
+  <si>
+    <t>DGRAD - Direction Generale des Recettes Administratives, Judiciaires, Domaniales et de Participation</t>
+  </si>
+  <si>
+    <t>DGDA - Direction Generale des Douanes et Accises</t>
+  </si>
+  <si>
+    <t>DGRAD - Direction Générale des Recettes Administratives, Judiciaires, Domaniales et de Participation</t>
+  </si>
+  <si>
+    <t>DRKAT - Direction Provinciale des Recettes du Katanga</t>
+  </si>
+  <si>
+    <t>DGDA - Direction Générale des Douanes et Accises</t>
+  </si>
+  <si>
+    <t>BCC</t>
+  </si>
+  <si>
+    <t>Ministere des Hydrocarbures</t>
+  </si>
+  <si>
+    <t>SGH - Secrétariat Général des Hydrocarbures</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>MECNT</t>
+  </si>
+  <si>
+    <t>Min ECN-T</t>
+  </si>
+  <si>
+    <t>Direction Generale des Impots (DGI)</t>
+  </si>
+  <si>
+    <t>Direction Generale des Recettes Administratives, Judiciaires, Domaniales et de Participation (DGRAD)</t>
+  </si>
+  <si>
+    <t>Entreprise du Portefeuille de l’Etat (EPE)</t>
+  </si>
+  <si>
+    <t>Direction Provinciale des Recettes du Katanga (DRKAT)</t>
+  </si>
+  <si>
+    <t>Direction Generale des Douanes (DGD)</t>
+  </si>
+  <si>
+    <t>Entreprise du Portefeuille de l’Etat</t>
+  </si>
+  <si>
+    <t>COHYDRO SA /SGH</t>
+  </si>
+  <si>
+    <t>Secretariat General des Hydrocarbures (SGH)</t>
+  </si>
+  <si>
+    <t>Ministere de l’Environnement et Developpement Durable (MEDD)</t>
+  </si>
+  <si>
+    <t>Direction Generale des Recettes Administratives (DGRAD)</t>
+  </si>
+  <si>
+    <t>Direction des Recettes du Haut katangaDRHKAT) et Direction des recettes de Lualaba (DRLU)</t>
+  </si>
+  <si>
+    <t>Entreprise Publique Miniere</t>
+  </si>
+  <si>
+    <t>Direction Generale des Douanes et accises (DGDA)</t>
+  </si>
+  <si>
+    <t>Direction Generale des Recettes Domaniales, Judiciaires et de Participation (DGRAD)</t>
+  </si>
+  <si>
+    <t>Ministere Provincial des Mines du Nord Kivu</t>
+  </si>
+  <si>
+    <t>Direction provinciale du Sud-Kivu</t>
+  </si>
+  <si>
+    <t>Direction provinciale de Tanganyika</t>
+  </si>
+  <si>
+    <t>Direction provinciale du Haut-Uele</t>
+  </si>
+  <si>
+    <t>Direction provinciale du Haut-Lomami</t>
+  </si>
+  <si>
+    <t>Direction provinciale du Nord-Kivu</t>
+  </si>
+  <si>
+    <t>Direction provinciale du KASAI</t>
+  </si>
+  <si>
+    <t>Direction provinciale de Kinshasa</t>
+  </si>
+  <si>
+    <t>Direction provinciale du Bas-Uele</t>
+  </si>
+  <si>
+    <t>Driection Provinciale Kwilu</t>
+  </si>
+  <si>
+    <t>Direction provinciale du Kongo Central</t>
+  </si>
+  <si>
+    <t>Direction provinciale duTshopo</t>
+  </si>
+  <si>
+    <t>Declaration unilaterale de la Direction provinciale du Tshopo</t>
+  </si>
+  <si>
+    <t>Entreprise Publique Petroliere</t>
+  </si>
+  <si>
+    <t>Direction Generale des Recettes Domaniales, Judiciaires et de Participations (DGRAD)</t>
+  </si>
+  <si>
+    <t>Entreprise Publique</t>
+  </si>
+  <si>
+    <t>Ministere de l'environnement</t>
+  </si>
+  <si>
+    <t>Secretariat General des Hydrocarbures</t>
+  </si>
+  <si>
+    <t>Secretariat General des Hydrocarbures &amp; SONAHYDROC</t>
+  </si>
+  <si>
+    <t>Banque Centrale du Congo(BCC)</t>
+  </si>
+  <si>
+    <t>government_agency_name</t>
+  </si>
+  <si>
+    <t>government_agency_name_clean</t>
+  </si>
+  <si>
+    <t>BCC - Banque Centrale du Congo</t>
+  </si>
+  <si>
+    <t>Direction provinciale du Tshopo</t>
+  </si>
+  <si>
+    <t>Ministère de l’Environnement, Conservation de la Nature et Tourisme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2369,19 +2466,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2428,7 +2512,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2724,11 +2808,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView topLeftCell="B142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView tabSelected="1" topLeftCell="B139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123:D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4386,10 +4470,10 @@
         <v>597</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>123</v>
+        <v>659</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>152</v>
@@ -4400,10 +4484,10 @@
         <v>598</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>123</v>
+        <v>659</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>152</v>
@@ -4414,10 +4498,10 @@
         <v>3</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>152</v>
@@ -4428,10 +4512,10 @@
         <v>47</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>152</v>
@@ -4442,10 +4526,10 @@
         <v>631</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>123</v>
+        <v>659</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>152</v>
@@ -5102,7 +5186,6 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5110,7 +5193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A340" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C348" sqref="C348"/>
     </sheetView>
   </sheetViews>
@@ -9287,4 +9370,466 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="93.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>744</v>
+      </c>
+      <c r="B4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>747</v>
+      </c>
+      <c r="B5" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>758</v>
+      </c>
+      <c r="B6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>766</v>
+      </c>
+      <c r="B7" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>741</v>
+      </c>
+      <c r="B8" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>734</v>
+      </c>
+      <c r="B9" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>754</v>
+      </c>
+      <c r="B10" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>743</v>
+      </c>
+      <c r="B11" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>745</v>
+      </c>
+      <c r="B12" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>735</v>
+      </c>
+      <c r="B13" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>763</v>
+      </c>
+      <c r="B14" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>755</v>
+      </c>
+      <c r="B15" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>767</v>
+      </c>
+      <c r="B16" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>782</v>
+      </c>
+      <c r="B17" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>775</v>
+      </c>
+      <c r="B18" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>770</v>
+      </c>
+      <c r="B19" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>776</v>
+      </c>
+      <c r="B20" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>772</v>
+      </c>
+      <c r="B21" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>771</v>
+      </c>
+      <c r="B22" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>774</v>
+      </c>
+      <c r="B23" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>778</v>
+      </c>
+      <c r="B24" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>773</v>
+      </c>
+      <c r="B25" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>768</v>
+      </c>
+      <c r="B26" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>769</v>
+      </c>
+      <c r="B27" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>780</v>
+      </c>
+      <c r="B28" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>779</v>
+      </c>
+      <c r="B29" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>777</v>
+      </c>
+      <c r="B30" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>764</v>
+      </c>
+      <c r="B31" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>757</v>
+      </c>
+      <c r="B32" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>746</v>
+      </c>
+      <c r="B33" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>759</v>
+      </c>
+      <c r="B34" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>756</v>
+      </c>
+      <c r="B35" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>783</v>
+      </c>
+      <c r="B36" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>765</v>
+      </c>
+      <c r="B37" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>781</v>
+      </c>
+      <c r="B38" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>742</v>
+      </c>
+      <c r="B39" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>736</v>
+      </c>
+      <c r="B40" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>762</v>
+      </c>
+      <c r="B41" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>784</v>
+      </c>
+      <c r="B42" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>752</v>
+      </c>
+      <c r="B43" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>753</v>
+      </c>
+      <c r="B44" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>738</v>
+      </c>
+      <c r="B45" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>737</v>
+      </c>
+      <c r="B46" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>740</v>
+      </c>
+      <c r="B47" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>760</v>
+      </c>
+      <c r="B48" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>749</v>
+      </c>
+      <c r="B49" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>785</v>
+      </c>
+      <c r="B50" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>786</v>
+      </c>
+      <c r="B51" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>761</v>
+      </c>
+      <c r="B52" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>750</v>
+      </c>
+      <c r="B53" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>739</v>
+      </c>
+      <c r="B54" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>751</v>
+      </c>
+      <c r="B55" t="s">
+        <v>751</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B55">
+    <sortCondition ref="B2:B55"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reconcile.xlsx
+++ b/reconcile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rev_codes" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>Thomas Lassourd</author>
   </authors>
   <commentList>
-    <comment ref="A136" authorId="0" shapeId="0">
+    <comment ref="A132" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="805">
   <si>
     <t>Revenue Stream: 1112E1 [Ordinary taxes on income, profits and capital gains] - Acompte provisionnel de l&amp;#039;IBP</t>
   </si>
@@ -2438,6 +2438,42 @@
   </si>
   <si>
     <t>Ministère de l’Environnement, Conservation de la Nature et Tourisme</t>
+  </si>
+  <si>
+    <t>Kibali</t>
+  </si>
+  <si>
+    <t>Namoya</t>
+  </si>
+  <si>
+    <t>Twangiza</t>
+  </si>
+  <si>
+    <t>Etoile</t>
+  </si>
+  <si>
+    <t>Kamoto</t>
+  </si>
+  <si>
+    <t>Kinsevere</t>
+  </si>
+  <si>
+    <t>Mutanda SX-EW</t>
+  </si>
+  <si>
+    <t>Ruashi</t>
+  </si>
+  <si>
+    <t>Tenke Fungurume</t>
+  </si>
+  <si>
+    <t>Lonshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miniere Musoshi Kinsenda </t>
+  </si>
+  <si>
+    <t>Kamoto SX-EW</t>
   </si>
 </sst>
 </file>
@@ -2811,7 +2847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B139" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B139" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D123" sqref="D123:D124"/>
     </sheetView>
   </sheetViews>
@@ -5191,10 +5227,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D357"/>
+  <dimension ref="A1:D371"/>
   <sheetViews>
-    <sheetView topLeftCell="A340" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C348" sqref="C348"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5220,10 +5256,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>720</v>
+      </c>
+      <c r="C2" t="s">
+        <v>728</v>
       </c>
       <c r="D2" t="s">
         <v>207</v>
@@ -5231,10 +5270,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>722</v>
+      </c>
+      <c r="C3" t="s">
+        <v>723</v>
       </c>
       <c r="D3" t="s">
         <v>207</v>
@@ -5242,10 +5284,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
         <v>207</v>
@@ -5253,10 +5295,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
         <v>207</v>
@@ -5264,10 +5306,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>428</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>703</v>
+        <v>424</v>
+      </c>
+      <c r="B6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C6" t="s">
+        <v>662</v>
       </c>
       <c r="D6" t="s">
         <v>207</v>
@@ -5275,10 +5320,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>429</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>703</v>
+        <v>425</v>
+      </c>
+      <c r="B7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C7" t="s">
+        <v>662</v>
       </c>
       <c r="D7" t="s">
         <v>207</v>
@@ -5286,10 +5334,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>426</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>661</v>
+      </c>
+      <c r="C8" t="s">
+        <v>662</v>
       </c>
       <c r="D8" t="s">
         <v>207</v>
@@ -5297,13 +5348,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" t="s">
-        <v>664</v>
+        <v>427</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>661</v>
       </c>
       <c r="C9" t="s">
-        <v>718</v>
+        <v>662</v>
       </c>
       <c r="D9" t="s">
         <v>207</v>
@@ -5311,13 +5362,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" t="s">
-        <v>664</v>
-      </c>
-      <c r="C10" t="s">
-        <v>718</v>
+        <v>428</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>703</v>
       </c>
       <c r="D10" t="s">
         <v>207</v>
@@ -5325,13 +5373,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11" t="s">
-        <v>722</v>
-      </c>
-      <c r="C11" t="s">
-        <v>723</v>
+        <v>429</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>703</v>
       </c>
       <c r="D11" t="s">
         <v>207</v>
@@ -5339,10 +5384,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B12" t="s">
-        <v>217</v>
+        <v>434</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="C12" t="s">
+        <v>663</v>
       </c>
       <c r="D12" t="s">
         <v>207</v>
@@ -5350,10 +5398,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D13" t="s">
         <v>207</v>
@@ -5361,10 +5409,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>664</v>
+      </c>
+      <c r="C14" t="s">
+        <v>718</v>
       </c>
       <c r="D14" t="s">
         <v>207</v>
@@ -5372,10 +5423,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>664</v>
+      </c>
+      <c r="C15" t="s">
+        <v>718</v>
       </c>
       <c r="D15" t="s">
         <v>207</v>
@@ -5383,10 +5437,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D16" t="s">
         <v>207</v>
@@ -5394,13 +5448,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B17" t="s">
-        <v>695</v>
-      </c>
-      <c r="C17" t="s">
-        <v>730</v>
+        <v>218</v>
       </c>
       <c r="D17" t="s">
         <v>207</v>
@@ -5408,13 +5459,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s">
-        <v>695</v>
-      </c>
-      <c r="C18" t="s">
-        <v>730</v>
+        <v>218</v>
       </c>
       <c r="D18" t="s">
         <v>207</v>
@@ -5422,13 +5470,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s">
-        <v>695</v>
-      </c>
-      <c r="C19" t="s">
-        <v>730</v>
+        <v>218</v>
       </c>
       <c r="D19" t="s">
         <v>207</v>
@@ -5436,10 +5481,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D20" t="s">
         <v>207</v>
@@ -5447,10 +5492,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s">
-        <v>696</v>
+        <v>695</v>
+      </c>
+      <c r="C21" t="s">
+        <v>730</v>
       </c>
       <c r="D21" t="s">
         <v>207</v>
@@ -5458,10 +5506,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s">
-        <v>696</v>
+        <v>695</v>
+      </c>
+      <c r="C22" t="s">
+        <v>730</v>
       </c>
       <c r="D22" t="s">
         <v>207</v>
@@ -5469,46 +5520,46 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s">
-        <v>229</v>
+        <v>695</v>
+      </c>
+      <c r="C23" t="s">
+        <v>730</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D24" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
-        <v>229</v>
+        <v>696</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>406</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s">
-        <v>678</v>
-      </c>
-      <c r="C26" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="D26" t="s">
         <v>207</v>
@@ -5516,49 +5567,40 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>407</v>
+        <v>229</v>
       </c>
       <c r="B27" t="s">
-        <v>678</v>
-      </c>
-      <c r="C27" t="s">
-        <v>677</v>
+        <v>229</v>
       </c>
       <c r="D27" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>408</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s">
-        <v>678</v>
-      </c>
-      <c r="C28" t="s">
-        <v>677</v>
+        <v>229</v>
       </c>
       <c r="D28" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>409</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s">
-        <v>678</v>
-      </c>
-      <c r="C29" t="s">
-        <v>677</v>
+        <v>229</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B30" t="s">
         <v>678</v>
@@ -5572,10 +5614,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B31" t="s">
-        <v>234</v>
+        <v>709</v>
       </c>
       <c r="D31" t="s">
         <v>207</v>
@@ -5583,10 +5625,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="D32" t="s">
         <v>207</v>
@@ -5594,10 +5636,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D33" t="s">
         <v>207</v>
@@ -5605,10 +5647,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D34" t="s">
         <v>207</v>
@@ -5616,10 +5658,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D35" t="s">
         <v>207</v>
@@ -5627,13 +5669,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>261</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="C36" t="s">
-        <v>706</v>
+        <v>237</v>
+      </c>
+      <c r="B36" t="s">
+        <v>236</v>
       </c>
       <c r="D36" t="s">
         <v>207</v>
@@ -5641,21 +5680,24 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B37" t="s">
-        <v>668</v>
+        <v>673</v>
+      </c>
+      <c r="C37" t="s">
+        <v>674</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B38" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D38" t="s">
         <v>207</v>
@@ -5663,10 +5705,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s">
-        <v>256</v>
+        <v>665</v>
       </c>
       <c r="D39" t="s">
         <v>207</v>
@@ -5674,10 +5716,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B40" t="s">
-        <v>256</v>
+        <v>665</v>
       </c>
       <c r="D40" t="s">
         <v>207</v>
@@ -5685,10 +5727,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s">
-        <v>666</v>
+        <v>244</v>
       </c>
       <c r="D41" t="s">
         <v>207</v>
@@ -5696,7 +5738,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B42" t="s">
         <v>666</v>
@@ -5707,7 +5749,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B43" t="s">
         <v>666</v>
@@ -5718,10 +5760,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B44" t="s">
-        <v>666</v>
+        <v>667</v>
+      </c>
+      <c r="C44" t="s">
+        <v>730</v>
       </c>
       <c r="D44" t="s">
         <v>207</v>
@@ -5729,10 +5774,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B45" t="s">
-        <v>259</v>
+        <v>667</v>
+      </c>
+      <c r="C45" t="s">
+        <v>730</v>
       </c>
       <c r="D45" t="s">
         <v>207</v>
@@ -5740,7 +5788,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B46" t="s">
         <v>259</v>
@@ -5751,7 +5799,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B47" t="s">
         <v>259</v>
@@ -5762,10 +5810,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B48" t="s">
-        <v>667</v>
+        <v>716</v>
+      </c>
+      <c r="C48" t="s">
+        <v>730</v>
       </c>
       <c r="D48" t="s">
         <v>207</v>
@@ -5773,10 +5824,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B49" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D49" t="s">
         <v>207</v>
@@ -5784,10 +5835,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B50" t="s">
-        <v>667</v>
+        <v>256</v>
       </c>
       <c r="D50" t="s">
         <v>207</v>
@@ -5795,10 +5846,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B51" t="s">
-        <v>667</v>
+        <v>256</v>
       </c>
       <c r="D51" t="s">
         <v>207</v>
@@ -5806,10 +5857,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B52" t="s">
-        <v>264</v>
+        <v>667</v>
       </c>
       <c r="D52" t="s">
         <v>207</v>
@@ -5817,10 +5868,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B53" t="s">
-        <v>264</v>
+        <v>667</v>
       </c>
       <c r="D53" t="s">
         <v>207</v>
@@ -5828,10 +5879,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B54" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D54" t="s">
         <v>207</v>
@@ -5839,10 +5890,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D55" t="s">
         <v>207</v>
@@ -5850,7 +5901,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B56" t="s">
         <v>266</v>
@@ -5861,13 +5912,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B57" t="s">
-        <v>669</v>
-      </c>
-      <c r="C57" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="D57" t="s">
         <v>207</v>
@@ -5875,13 +5923,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="B58" t="s">
-        <v>669</v>
-      </c>
-      <c r="C58" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D58" t="s">
         <v>207</v>
@@ -5889,13 +5934,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B59" t="s">
-        <v>669</v>
-      </c>
-      <c r="C59" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D59" t="s">
         <v>207</v>
@@ -5903,10 +5945,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B60" t="s">
-        <v>274</v>
+        <v>669</v>
+      </c>
+      <c r="C60" t="s">
+        <v>670</v>
       </c>
       <c r="D60" t="s">
         <v>207</v>
@@ -5914,10 +5959,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B61" t="s">
-        <v>274</v>
+        <v>669</v>
+      </c>
+      <c r="C61" t="s">
+        <v>670</v>
       </c>
       <c r="D61" t="s">
         <v>207</v>
@@ -5925,10 +5973,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B62" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D62" t="s">
         <v>207</v>
@@ -5936,10 +5984,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B63" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D63" t="s">
         <v>207</v>
@@ -5947,7 +5995,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B64" t="s">
         <v>276</v>
@@ -5958,10 +6006,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B65" t="s">
-        <v>697</v>
+        <v>276</v>
       </c>
       <c r="D65" t="s">
         <v>207</v>
@@ -5969,10 +6017,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B66" t="s">
-        <v>697</v>
+        <v>276</v>
       </c>
       <c r="D66" t="s">
         <v>207</v>
@@ -5980,7 +6028,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B67" t="s">
         <v>697</v>
@@ -5991,7 +6039,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B68" t="s">
         <v>697</v>
@@ -6002,10 +6050,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="B69" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="D69" t="s">
         <v>207</v>
@@ -6013,10 +6061,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B70" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="D70" t="s">
         <v>207</v>
@@ -6024,10 +6072,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="B71" t="s">
-        <v>665</v>
+        <v>709</v>
       </c>
       <c r="D71" t="s">
         <v>207</v>
@@ -6035,10 +6083,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="B72" t="s">
-        <v>665</v>
+        <v>284</v>
       </c>
       <c r="D72" t="s">
         <v>207</v>
@@ -6046,10 +6094,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>241</v>
+        <v>595</v>
       </c>
       <c r="B73" t="s">
-        <v>665</v>
+        <v>284</v>
       </c>
       <c r="D73" t="s">
         <v>207</v>
@@ -6057,10 +6105,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="B74" t="s">
-        <v>665</v>
+        <v>708</v>
       </c>
       <c r="D74" t="s">
         <v>207</v>
@@ -6068,10 +6116,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="B75" t="s">
-        <v>665</v>
+        <v>707</v>
       </c>
       <c r="D75" t="s">
         <v>207</v>
@@ -6079,10 +6127,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B76" t="s">
-        <v>284</v>
+        <v>347</v>
+      </c>
+      <c r="C76" t="s">
+        <v>731</v>
       </c>
       <c r="D76" t="s">
         <v>207</v>
@@ -6090,10 +6141,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>595</v>
+        <v>288</v>
       </c>
       <c r="B77" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D77" t="s">
         <v>207</v>
@@ -6101,10 +6152,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B78" t="s">
-        <v>708</v>
+        <v>288</v>
       </c>
       <c r="D78" t="s">
         <v>207</v>
@@ -6112,10 +6163,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B79" t="s">
-        <v>707</v>
+        <v>292</v>
       </c>
       <c r="D79" t="s">
         <v>207</v>
@@ -6123,10 +6174,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B80" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D80" t="s">
         <v>207</v>
@@ -6134,10 +6185,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B81" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D81" t="s">
         <v>207</v>
@@ -6145,10 +6196,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B82" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D82" t="s">
         <v>207</v>
@@ -6156,10 +6207,10 @@
     </row>
     <row r="83" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B83" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D83" t="s">
         <v>207</v>
@@ -6167,10 +6218,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B84" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D84" t="s">
         <v>207</v>
@@ -6178,10 +6229,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B85" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D85" t="s">
         <v>207</v>
@@ -6189,10 +6240,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B86" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D86" t="s">
         <v>207</v>
@@ -6200,18 +6251,18 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B87" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D87" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B88" t="s">
         <v>296</v>
@@ -6222,7 +6273,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B89" t="s">
         <v>296</v>
@@ -6233,10 +6284,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B90" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D90" t="s">
         <v>207</v>
@@ -6244,10 +6295,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>299</v>
+        <v>796</v>
       </c>
       <c r="B91" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D91" t="s">
         <v>207</v>
@@ -6255,10 +6306,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B92" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D92" t="s">
         <v>207</v>
@@ -6266,21 +6317,21 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B93" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D93" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B94" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D94" t="s">
         <v>207</v>
@@ -6288,10 +6339,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B95" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D95" t="s">
         <v>207</v>
@@ -6299,10 +6350,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B96" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D96" t="s">
         <v>207</v>
@@ -6310,10 +6361,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B97" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D97" t="s">
         <v>207</v>
@@ -6321,10 +6372,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B98" t="s">
-        <v>306</v>
+        <v>698</v>
+      </c>
+      <c r="C98" t="s">
+        <v>730</v>
       </c>
       <c r="D98" t="s">
         <v>207</v>
@@ -6332,10 +6386,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>307</v>
+        <v>698</v>
       </c>
       <c r="B99" t="s">
-        <v>307</v>
+        <v>698</v>
+      </c>
+      <c r="C99" t="s">
+        <v>730</v>
       </c>
       <c r="D99" t="s">
         <v>207</v>
@@ -6343,10 +6400,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B100" t="s">
-        <v>308</v>
+        <v>698</v>
+      </c>
+      <c r="C100" t="s">
+        <v>730</v>
       </c>
       <c r="D100" t="s">
         <v>207</v>
@@ -6354,13 +6414,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B101" t="s">
-        <v>698</v>
-      </c>
-      <c r="C101" t="s">
-        <v>730</v>
+        <v>318</v>
       </c>
       <c r="D101" t="s">
         <v>207</v>
@@ -6368,13 +6425,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B102" t="s">
-        <v>698</v>
-      </c>
-      <c r="C102" t="s">
-        <v>730</v>
+        <v>318</v>
       </c>
       <c r="D102" t="s">
         <v>207</v>
@@ -6382,10 +6436,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B103" t="s">
-        <v>314</v>
+        <v>699</v>
       </c>
       <c r="D103" t="s">
         <v>207</v>
@@ -6393,7 +6447,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B104" t="s">
         <v>314</v>
@@ -6404,7 +6458,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B105" t="s">
         <v>314</v>
@@ -6415,7 +6469,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B106" t="s">
         <v>314</v>
@@ -6426,10 +6480,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B107" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D107" t="s">
         <v>207</v>
@@ -6437,10 +6491,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B108" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D108" t="s">
         <v>207</v>
@@ -6448,10 +6502,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>320</v>
+        <v>557</v>
       </c>
       <c r="B109" t="s">
-        <v>320</v>
+        <v>558</v>
       </c>
       <c r="D109" t="s">
         <v>207</v>
@@ -6459,10 +6513,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>321</v>
+        <v>559</v>
       </c>
       <c r="B110" t="s">
-        <v>321</v>
+        <v>558</v>
       </c>
       <c r="D110" t="s">
         <v>207</v>
@@ -6470,10 +6524,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B111" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D111" t="s">
         <v>207</v>
@@ -6481,7 +6535,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B112" t="s">
         <v>322</v>
@@ -6492,7 +6546,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B113" t="s">
         <v>322</v>
@@ -6503,7 +6557,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B114" t="s">
         <v>322</v>
@@ -6514,13 +6568,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>340</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="C115" t="s">
-        <v>728</v>
+        <v>325</v>
+      </c>
+      <c r="B115" t="s">
+        <v>322</v>
       </c>
       <c r="D115" t="s">
         <v>207</v>
@@ -6528,7 +6579,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>721</v>
@@ -6542,7 +6593,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>721</v>
@@ -6556,10 +6607,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>326</v>
+        <v>721</v>
+      </c>
+      <c r="C118" t="s">
+        <v>728</v>
       </c>
       <c r="D118" t="s">
         <v>207</v>
@@ -6567,7 +6621,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>326</v>
@@ -6578,10 +6632,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>328</v>
-      </c>
-      <c r="B120" t="s">
-        <v>329</v>
+        <v>327</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="D120" t="s">
         <v>207</v>
@@ -6589,7 +6643,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B121" t="s">
         <v>329</v>
@@ -6600,7 +6654,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B122" t="s">
         <v>329</v>
@@ -6611,10 +6665,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B123" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D123" t="s">
         <v>207</v>
@@ -6622,7 +6676,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B124" t="s">
         <v>331</v>
@@ -6633,10 +6687,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B125" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D125" t="s">
         <v>207</v>
@@ -6644,10 +6698,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B126" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D126" t="s">
         <v>207</v>
@@ -6655,10 +6709,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B127" t="s">
-        <v>335</v>
+        <v>694</v>
       </c>
       <c r="D127" t="s">
         <v>207</v>
@@ -6666,10 +6720,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B128" t="s">
-        <v>335</v>
+        <v>694</v>
       </c>
       <c r="D128" t="s">
         <v>207</v>
@@ -6677,10 +6731,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B129" t="s">
-        <v>694</v>
+        <v>720</v>
+      </c>
+      <c r="C129" t="s">
+        <v>728</v>
       </c>
       <c r="D129" t="s">
         <v>207</v>
@@ -6688,10 +6745,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B130" t="s">
-        <v>694</v>
+        <v>720</v>
+      </c>
+      <c r="C130" t="s">
+        <v>728</v>
       </c>
       <c r="D130" t="s">
         <v>207</v>
@@ -6699,10 +6759,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>339</v>
+        <v>797</v>
       </c>
       <c r="B131" t="s">
-        <v>694</v>
+        <v>347</v>
+      </c>
+      <c r="C131" t="s">
+        <v>731</v>
       </c>
       <c r="D131" t="s">
         <v>207</v>
@@ -6710,13 +6773,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>206</v>
+        <v>346</v>
       </c>
       <c r="B132" t="s">
-        <v>720</v>
+        <v>347</v>
       </c>
       <c r="C132" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D132" t="s">
         <v>207</v>
@@ -6724,13 +6787,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B133" t="s">
-        <v>720</v>
+        <v>347</v>
       </c>
       <c r="C133" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D133" t="s">
         <v>207</v>
@@ -6738,13 +6801,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B134" t="s">
-        <v>720</v>
+        <v>347</v>
       </c>
       <c r="C134" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D134" t="s">
         <v>207</v>
@@ -6752,7 +6815,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>287</v>
+        <v>804</v>
       </c>
       <c r="B135" t="s">
         <v>347</v>
@@ -6766,10 +6829,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>346</v>
+        <v>449</v>
       </c>
       <c r="B136" t="s">
-        <v>347</v>
+        <v>715</v>
       </c>
       <c r="C136" t="s">
         <v>731</v>
@@ -6780,13 +6843,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B137" t="s">
-        <v>347</v>
-      </c>
-      <c r="C137" t="s">
-        <v>731</v>
+        <v>350</v>
       </c>
       <c r="D137" t="s">
         <v>207</v>
@@ -6794,13 +6854,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B138" t="s">
-        <v>347</v>
-      </c>
-      <c r="C138" t="s">
-        <v>731</v>
+        <v>350</v>
       </c>
       <c r="D138" t="s">
         <v>207</v>
@@ -6808,10 +6865,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B139" t="s">
-        <v>350</v>
+        <v>692</v>
       </c>
       <c r="D139" t="s">
         <v>207</v>
@@ -6819,10 +6876,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B140" t="s">
-        <v>350</v>
+        <v>692</v>
       </c>
       <c r="D140" t="s">
         <v>207</v>
@@ -6830,10 +6887,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B141" t="s">
-        <v>692</v>
+        <v>719</v>
+      </c>
+      <c r="C141" t="s">
+        <v>733</v>
       </c>
       <c r="D141" t="s">
         <v>207</v>
@@ -6841,10 +6901,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B142" t="s">
-        <v>692</v>
+        <v>719</v>
+      </c>
+      <c r="C142" t="s">
+        <v>733</v>
       </c>
       <c r="D142" t="s">
         <v>207</v>
@@ -6852,7 +6915,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B143" t="s">
         <v>719</v>
@@ -6866,7 +6929,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B144" t="s">
         <v>719</v>
@@ -6880,7 +6943,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B145" t="s">
         <v>719</v>
@@ -6894,13 +6957,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B146" t="s">
-        <v>719</v>
-      </c>
-      <c r="C146" t="s">
-        <v>733</v>
+        <v>691</v>
       </c>
       <c r="D146" t="s">
         <v>207</v>
@@ -6908,13 +6968,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>354</v>
+        <v>793</v>
       </c>
       <c r="B147" t="s">
-        <v>719</v>
-      </c>
-      <c r="C147" t="s">
-        <v>733</v>
+        <v>691</v>
       </c>
       <c r="D147" t="s">
         <v>207</v>
@@ -6922,7 +6979,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B148" t="s">
         <v>691</v>
@@ -6933,10 +6990,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B149" t="s">
-        <v>691</v>
+        <v>671</v>
+      </c>
+      <c r="C149" t="s">
+        <v>672</v>
       </c>
       <c r="D149" t="s">
         <v>207</v>
@@ -6944,13 +7004,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>341</v>
+        <v>798</v>
       </c>
       <c r="B150" t="s">
-        <v>729</v>
+        <v>661</v>
       </c>
       <c r="C150" t="s">
-        <v>728</v>
+        <v>662</v>
       </c>
       <c r="D150" t="s">
         <v>207</v>
@@ -6958,13 +7018,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>361</v>
+        <v>430</v>
       </c>
       <c r="B151" t="s">
-        <v>729</v>
+        <v>661</v>
       </c>
       <c r="C151" t="s">
-        <v>728</v>
+        <v>662</v>
       </c>
       <c r="D151" t="s">
         <v>207</v>
@@ -6972,10 +7032,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="B152" t="s">
-        <v>693</v>
+        <v>729</v>
+      </c>
+      <c r="C152" t="s">
+        <v>728</v>
       </c>
       <c r="D152" t="s">
         <v>207</v>
@@ -6983,10 +7046,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B153" t="s">
-        <v>693</v>
+        <v>729</v>
+      </c>
+      <c r="C153" t="s">
+        <v>728</v>
       </c>
       <c r="D153" t="s">
         <v>207</v>
@@ -6994,13 +7060,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B154" t="s">
-        <v>671</v>
-      </c>
-      <c r="C154" t="s">
-        <v>672</v>
+        <v>693</v>
       </c>
       <c r="D154" t="s">
         <v>207</v>
@@ -7008,13 +7071,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B155" t="s">
-        <v>671</v>
-      </c>
-      <c r="C155" t="s">
-        <v>672</v>
+        <v>693</v>
       </c>
       <c r="D155" t="s">
         <v>207</v>
@@ -7022,7 +7082,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B156" t="s">
         <v>671</v>
@@ -7036,35 +7096,32 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>238</v>
-      </c>
-      <c r="B157" t="s">
-        <v>673</v>
+        <v>261</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>705</v>
       </c>
       <c r="C157" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
       <c r="D157" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="B158" t="s">
-        <v>673</v>
-      </c>
-      <c r="C158" t="s">
-        <v>674</v>
+        <v>259</v>
       </c>
       <c r="D158" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>569</v>
+        <v>367</v>
       </c>
       <c r="B159" t="s">
         <v>673</v>
@@ -7078,10 +7135,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>311</v>
+        <v>242</v>
       </c>
       <c r="B160" t="s">
-        <v>699</v>
+        <v>665</v>
       </c>
       <c r="D160" t="s">
         <v>207</v>
@@ -7089,10 +7146,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>312</v>
+        <v>243</v>
       </c>
       <c r="B161" t="s">
-        <v>699</v>
+        <v>665</v>
       </c>
       <c r="D161" t="s">
         <v>207</v>
@@ -7100,10 +7157,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="B162" t="s">
-        <v>369</v>
+        <v>699</v>
       </c>
       <c r="D162" t="s">
         <v>207</v>
@@ -7111,10 +7168,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>530</v>
+        <v>372</v>
       </c>
       <c r="B163" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D163" t="s">
         <v>207</v>
@@ -7122,10 +7179,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>370</v>
+        <v>519</v>
       </c>
       <c r="B164" t="s">
-        <v>371</v>
+        <v>685</v>
       </c>
       <c r="D164" t="s">
         <v>207</v>
@@ -7133,10 +7190,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B165" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D165" t="s">
         <v>207</v>
@@ -7144,10 +7201,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B166" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D166" t="s">
         <v>207</v>
@@ -7155,10 +7212,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B167" t="s">
-        <v>376</v>
+        <v>675</v>
       </c>
       <c r="D167" t="s">
         <v>207</v>
@@ -7166,10 +7223,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B168" t="s">
-        <v>376</v>
+        <v>676</v>
       </c>
       <c r="D168" t="s">
         <v>207</v>
@@ -7177,7 +7234,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B169" t="s">
         <v>676</v>
@@ -7188,32 +7245,32 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B170" t="s">
-        <v>676</v>
+        <v>384</v>
       </c>
       <c r="D170" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B171" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D171" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B172" t="s">
-        <v>675</v>
+        <v>386</v>
       </c>
       <c r="D172" t="s">
         <v>207</v>
@@ -7221,10 +7278,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B173" t="s">
-        <v>675</v>
+        <v>713</v>
+      </c>
+      <c r="C173" t="s">
+        <v>700</v>
       </c>
       <c r="D173" t="s">
         <v>207</v>
@@ -7232,32 +7292,38 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B174" t="s">
-        <v>384</v>
+        <v>713</v>
+      </c>
+      <c r="C174" t="s">
+        <v>700</v>
       </c>
       <c r="D174" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B175" t="s">
-        <v>384</v>
+        <v>713</v>
+      </c>
+      <c r="C175" t="s">
+        <v>700</v>
       </c>
       <c r="D175" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B176" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D176" t="s">
         <v>207</v>
@@ -7265,10 +7331,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>390</v>
+        <v>802</v>
       </c>
       <c r="B177" t="s">
-        <v>390</v>
+        <v>667</v>
+      </c>
+      <c r="C177" t="s">
+        <v>730</v>
       </c>
       <c r="D177" t="s">
         <v>207</v>
@@ -7315,13 +7384,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>394</v>
+        <v>248</v>
       </c>
       <c r="B181" t="s">
-        <v>717</v>
-      </c>
-      <c r="C181" t="s">
-        <v>718</v>
+        <v>666</v>
       </c>
       <c r="D181" t="s">
         <v>207</v>
@@ -7351,10 +7417,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="B184" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="D184" t="s">
         <v>207</v>
@@ -7362,10 +7428,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B185" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D185" t="s">
         <v>207</v>
@@ -7373,7 +7439,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B186" t="s">
         <v>398</v>
@@ -7384,10 +7450,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B187" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D187" t="s">
         <v>207</v>
@@ -7395,7 +7461,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B188" t="s">
         <v>400</v>
@@ -7406,10 +7472,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B189" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D189" t="s">
         <v>207</v>
@@ -7417,7 +7483,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B190" t="s">
         <v>403</v>
@@ -7428,10 +7494,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B191" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D191" t="s">
         <v>207</v>
@@ -7439,10 +7505,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B192" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D192" t="s">
         <v>207</v>
@@ -7450,13 +7516,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>254</v>
+        <v>407</v>
       </c>
       <c r="B193" t="s">
-        <v>716</v>
+        <v>678</v>
       </c>
       <c r="C193" t="s">
-        <v>730</v>
+        <v>677</v>
       </c>
       <c r="D193" t="s">
         <v>207</v>
@@ -7464,13 +7530,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>253</v>
+        <v>411</v>
       </c>
       <c r="B194" t="s">
-        <v>716</v>
-      </c>
-      <c r="C194" t="s">
-        <v>730</v>
+        <v>411</v>
       </c>
       <c r="D194" t="s">
         <v>207</v>
@@ -7478,13 +7541,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>593</v>
+        <v>412</v>
       </c>
       <c r="B195" t="s">
-        <v>716</v>
-      </c>
-      <c r="C195" t="s">
-        <v>730</v>
+        <v>413</v>
       </c>
       <c r="D195" t="s">
         <v>207</v>
@@ -7492,13 +7552,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>592</v>
+        <v>413</v>
       </c>
       <c r="B196" t="s">
-        <v>716</v>
-      </c>
-      <c r="C196" t="s">
-        <v>730</v>
+        <v>413</v>
       </c>
       <c r="D196" t="s">
         <v>207</v>
@@ -7506,10 +7563,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>412</v>
+        <v>253</v>
       </c>
       <c r="B197" t="s">
-        <v>413</v>
+        <v>716</v>
+      </c>
+      <c r="C197" t="s">
+        <v>730</v>
       </c>
       <c r="D197" t="s">
         <v>207</v>
@@ -7517,10 +7577,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>413</v>
+        <v>593</v>
       </c>
       <c r="B198" t="s">
-        <v>413</v>
+        <v>716</v>
+      </c>
+      <c r="C198" t="s">
+        <v>730</v>
       </c>
       <c r="D198" t="s">
         <v>207</v>
@@ -7528,10 +7591,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>414</v>
+        <v>592</v>
       </c>
       <c r="B199" t="s">
-        <v>414</v>
+        <v>716</v>
+      </c>
+      <c r="C199" t="s">
+        <v>730</v>
       </c>
       <c r="D199" t="s">
         <v>207</v>
@@ -7539,10 +7605,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="B200" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="D200" t="s">
         <v>207</v>
@@ -7550,10 +7616,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B201" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D201" t="s">
         <v>207</v>
@@ -7561,10 +7627,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B202" t="s">
-        <v>417</v>
+        <v>678</v>
+      </c>
+      <c r="C202" t="s">
+        <v>677</v>
       </c>
       <c r="D202" t="s">
         <v>207</v>
@@ -7572,10 +7641,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B203" t="s">
-        <v>420</v>
+        <v>678</v>
+      </c>
+      <c r="C203" t="s">
+        <v>677</v>
       </c>
       <c r="D203" t="s">
         <v>207</v>
@@ -7583,10 +7655,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B204" t="s">
-        <v>420</v>
+        <v>678</v>
+      </c>
+      <c r="C204" t="s">
+        <v>677</v>
       </c>
       <c r="D204" t="s">
         <v>207</v>
@@ -7594,10 +7669,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>422</v>
+        <v>368</v>
       </c>
       <c r="B205" t="s">
-        <v>422</v>
+        <v>369</v>
       </c>
       <c r="D205" t="s">
         <v>207</v>
@@ -7605,10 +7680,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>423</v>
+        <v>803</v>
       </c>
       <c r="B206" t="s">
-        <v>423</v>
+        <v>671</v>
+      </c>
+      <c r="C206" t="s">
+        <v>672</v>
       </c>
       <c r="D206" t="s">
         <v>207</v>
@@ -7616,13 +7694,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B207" t="s">
-        <v>661</v>
-      </c>
-      <c r="C207" t="s">
-        <v>662</v>
+        <v>415</v>
       </c>
       <c r="D207" t="s">
         <v>207</v>
@@ -7630,13 +7705,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="B208" t="s">
-        <v>661</v>
-      </c>
-      <c r="C208" t="s">
-        <v>662</v>
+        <v>417</v>
       </c>
       <c r="D208" t="s">
         <v>207</v>
@@ -7644,13 +7716,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B209" t="s">
-        <v>661</v>
-      </c>
-      <c r="C209" t="s">
-        <v>662</v>
+        <v>417</v>
       </c>
       <c r="D209" t="s">
         <v>207</v>
@@ -7658,13 +7727,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B210" t="s">
-        <v>661</v>
-      </c>
-      <c r="C210" t="s">
-        <v>662</v>
+        <v>420</v>
       </c>
       <c r="D210" t="s">
         <v>207</v>
@@ -7672,41 +7738,32 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="B211" t="s">
-        <v>661</v>
-      </c>
-      <c r="C211" t="s">
-        <v>662</v>
+        <v>438</v>
       </c>
       <c r="D211" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="B212" t="s">
-        <v>661</v>
-      </c>
-      <c r="C212" t="s">
-        <v>662</v>
+        <v>438</v>
       </c>
       <c r="D212" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
       <c r="B213" t="s">
-        <v>661</v>
-      </c>
-      <c r="C213" t="s">
-        <v>662</v>
+        <v>379</v>
       </c>
       <c r="D213" t="s">
         <v>207</v>
@@ -7714,13 +7771,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>427</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C214" t="s">
-        <v>662</v>
+        <v>422</v>
+      </c>
+      <c r="B214" t="s">
+        <v>422</v>
       </c>
       <c r="D214" t="s">
         <v>207</v>
@@ -7728,13 +7782,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>434</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="C215" t="s">
-        <v>663</v>
+        <v>374</v>
+      </c>
+      <c r="B215" t="s">
+        <v>373</v>
       </c>
       <c r="D215" t="s">
         <v>207</v>
@@ -7742,13 +7793,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="B216" t="s">
-        <v>679</v>
-      </c>
-      <c r="C216" t="s">
-        <v>663</v>
+        <v>423</v>
       </c>
       <c r="D216" t="s">
         <v>207</v>
@@ -7756,13 +7804,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B217" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="C217" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D217" t="s">
         <v>207</v>
@@ -7770,54 +7818,69 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B218" t="s">
-        <v>438</v>
+        <v>661</v>
+      </c>
+      <c r="C218" t="s">
+        <v>662</v>
       </c>
       <c r="D218" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B219" t="s">
-        <v>438</v>
+        <v>661</v>
+      </c>
+      <c r="C219" t="s">
+        <v>662</v>
       </c>
       <c r="D219" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>440</v>
+        <v>366</v>
       </c>
       <c r="B220" t="s">
-        <v>438</v>
+        <v>671</v>
+      </c>
+      <c r="C220" t="s">
+        <v>672</v>
       </c>
       <c r="D220" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B221" t="s">
-        <v>438</v>
+        <v>679</v>
+      </c>
+      <c r="C221" t="s">
+        <v>663</v>
       </c>
       <c r="D221" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B222" t="s">
-        <v>443</v>
+        <v>679</v>
+      </c>
+      <c r="C222" t="s">
+        <v>663</v>
       </c>
       <c r="D222" t="s">
         <v>207</v>
@@ -7825,29 +7888,29 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B223" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D223" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B224" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D224" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B225" t="s">
         <v>715</v>
@@ -7861,7 +7924,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B226" t="s">
         <v>715</v>
@@ -7875,13 +7938,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B227" t="s">
-        <v>715</v>
-      </c>
-      <c r="C227" t="s">
-        <v>731</v>
+        <v>443</v>
       </c>
       <c r="D227" t="s">
         <v>207</v>
@@ -7889,13 +7949,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B228" t="s">
-        <v>715</v>
-      </c>
-      <c r="C228" t="s">
-        <v>731</v>
+        <v>443</v>
       </c>
       <c r="D228" t="s">
         <v>207</v>
@@ -7903,13 +7960,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B229" t="s">
-        <v>715</v>
-      </c>
-      <c r="C229" t="s">
-        <v>731</v>
+        <v>443</v>
       </c>
       <c r="D229" t="s">
         <v>207</v>
@@ -7917,10 +7971,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>450</v>
+        <v>715</v>
       </c>
       <c r="B230" t="s">
-        <v>450</v>
+        <v>715</v>
+      </c>
+      <c r="C230" t="s">
+        <v>731</v>
       </c>
       <c r="D230" t="s">
         <v>207</v>
@@ -7928,10 +7985,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B231" t="s">
-        <v>452</v>
+        <v>715</v>
+      </c>
+      <c r="C231" t="s">
+        <v>731</v>
       </c>
       <c r="D231" t="s">
         <v>207</v>
@@ -7939,10 +7999,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B232" t="s">
-        <v>452</v>
+        <v>715</v>
+      </c>
+      <c r="C232" t="s">
+        <v>731</v>
       </c>
       <c r="D232" t="s">
         <v>207</v>
@@ -7950,10 +8013,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>454</v>
+        <v>799</v>
       </c>
       <c r="B233" t="s">
-        <v>452</v>
+        <v>715</v>
+      </c>
+      <c r="C233" t="s">
+        <v>731</v>
       </c>
       <c r="D233" t="s">
         <v>207</v>
@@ -7961,13 +8027,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B234" t="s">
-        <v>714</v>
-      </c>
-      <c r="C234" t="s">
-        <v>718</v>
+        <v>450</v>
       </c>
       <c r="D234" t="s">
         <v>207</v>
@@ -7975,13 +8038,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B235" t="s">
-        <v>714</v>
-      </c>
-      <c r="C235" t="s">
-        <v>718</v>
+        <v>452</v>
       </c>
       <c r="D235" t="s">
         <v>207</v>
@@ -7989,13 +8049,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B236" t="s">
-        <v>714</v>
-      </c>
-      <c r="C236" t="s">
-        <v>718</v>
+        <v>452</v>
       </c>
       <c r="D236" t="s">
         <v>207</v>
@@ -8003,24 +8060,27 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B237" t="s">
-        <v>458</v>
+        <v>714</v>
+      </c>
+      <c r="C237" t="s">
+        <v>718</v>
       </c>
       <c r="D237" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>387</v>
+        <v>794</v>
       </c>
       <c r="B238" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C238" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="D238" t="s">
         <v>207</v>
@@ -8028,13 +8088,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>388</v>
+        <v>456</v>
       </c>
       <c r="B239" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C239" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="D239" t="s">
         <v>207</v>
@@ -8042,16 +8102,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="B240" t="s">
-        <v>713</v>
-      </c>
-      <c r="C240" t="s">
-        <v>700</v>
+        <v>458</v>
       </c>
       <c r="D240" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -8089,10 +8146,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="B244" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="D244" t="s">
         <v>207</v>
@@ -8100,10 +8157,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B245" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D245" t="s">
         <v>207</v>
@@ -8111,18 +8168,18 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>596</v>
+        <v>463</v>
       </c>
       <c r="B246" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D246" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>465</v>
+        <v>596</v>
       </c>
       <c r="B247" t="s">
         <v>464</v>
@@ -8133,7 +8190,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B248" t="s">
         <v>464</v>
@@ -8144,18 +8201,18 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B249" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D249" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B250" t="s">
         <v>467</v>
@@ -8166,32 +8223,32 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B251" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D251" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B252" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D252" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B253" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D253" t="s">
         <v>207</v>
@@ -8199,10 +8256,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B254" t="s">
-        <v>682</v>
+        <v>471</v>
       </c>
       <c r="D254" t="s">
         <v>207</v>
@@ -8210,7 +8267,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>473</v>
+        <v>800</v>
       </c>
       <c r="B255" t="s">
         <v>682</v>
@@ -8221,10 +8278,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B256" t="s">
-        <v>474</v>
+        <v>682</v>
       </c>
       <c r="D256" t="s">
         <v>207</v>
@@ -8232,7 +8289,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B257" t="s">
         <v>474</v>
@@ -8243,10 +8300,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B258" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D258" t="s">
         <v>207</v>
@@ -8254,7 +8311,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B259" t="s">
         <v>476</v>
@@ -8265,10 +8322,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B260" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D260" t="s">
         <v>207</v>
@@ -8276,10 +8333,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B261" t="s">
-        <v>479</v>
+        <v>682</v>
       </c>
       <c r="D261" t="s">
         <v>207</v>
@@ -8287,10 +8344,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>481</v>
+        <v>211</v>
       </c>
       <c r="B262" t="s">
-        <v>481</v>
+        <v>212</v>
       </c>
       <c r="D262" t="s">
         <v>207</v>
@@ -8298,24 +8355,21 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B263" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D263" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B264" t="s">
-        <v>683</v>
-      </c>
-      <c r="C264" t="s">
-        <v>684</v>
+        <v>479</v>
       </c>
       <c r="D264" t="s">
         <v>207</v>
@@ -8323,13 +8377,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B265" t="s">
-        <v>683</v>
-      </c>
-      <c r="C265" t="s">
-        <v>684</v>
+        <v>479</v>
       </c>
       <c r="D265" t="s">
         <v>207</v>
@@ -8337,10 +8388,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B266" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D266" t="s">
         <v>207</v>
@@ -8348,10 +8399,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="B267" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="D267" t="s">
         <v>207</v>
@@ -8359,10 +8410,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B268" t="s">
-        <v>491</v>
+        <v>680</v>
       </c>
       <c r="D268" t="s">
         <v>207</v>
@@ -8370,10 +8421,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B269" t="s">
-        <v>495</v>
+        <v>680</v>
       </c>
       <c r="D269" t="s">
         <v>207</v>
@@ -8381,10 +8432,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B270" t="s">
-        <v>495</v>
+        <v>680</v>
       </c>
       <c r="D270" t="s">
         <v>207</v>
@@ -8392,10 +8443,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="B271" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="D271" t="s">
         <v>207</v>
@@ -8403,10 +8454,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="B272" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="D272" t="s">
         <v>207</v>
@@ -8414,10 +8465,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="B273" t="s">
-        <v>497</v>
+        <v>681</v>
       </c>
       <c r="D273" t="s">
         <v>207</v>
@@ -8425,21 +8476,24 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="B274" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="D274" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="B275" t="s">
-        <v>501</v>
+        <v>683</v>
+      </c>
+      <c r="C275" t="s">
+        <v>684</v>
       </c>
       <c r="D275" t="s">
         <v>207</v>
@@ -8447,10 +8501,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="B276" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="D276" t="s">
         <v>207</v>
@@ -8458,10 +8512,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="B277" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="D277" t="s">
         <v>207</v>
@@ -8469,10 +8523,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>506</v>
+        <v>381</v>
       </c>
       <c r="B278" t="s">
-        <v>507</v>
+        <v>675</v>
       </c>
       <c r="D278" t="s">
         <v>207</v>
@@ -8480,10 +8534,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="B279" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="D279" t="s">
         <v>207</v>
@@ -8491,10 +8545,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="B280" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="D280" t="s">
         <v>207</v>
@@ -8502,10 +8556,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="B281" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="D281" t="s">
         <v>207</v>
@@ -8513,10 +8567,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="B282" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="D282" t="s">
         <v>207</v>
@@ -8524,10 +8578,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="B283" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="D283" t="s">
         <v>207</v>
@@ -8535,10 +8589,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="B284" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="D284" t="s">
         <v>207</v>
@@ -8546,10 +8600,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="B285" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="D285" t="s">
         <v>207</v>
@@ -8557,10 +8611,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="B286" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="D286" t="s">
         <v>207</v>
@@ -8568,10 +8622,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>518</v>
+        <v>213</v>
       </c>
       <c r="B287" t="s">
-        <v>516</v>
+        <v>212</v>
       </c>
       <c r="D287" t="s">
         <v>207</v>
@@ -8579,10 +8633,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="B288" t="s">
-        <v>685</v>
+        <v>497</v>
       </c>
       <c r="D288" t="s">
         <v>207</v>
@@ -8590,10 +8644,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="B289" t="s">
-        <v>685</v>
+        <v>497</v>
       </c>
       <c r="D289" t="s">
         <v>207</v>
@@ -8601,10 +8655,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="B290" t="s">
-        <v>685</v>
+        <v>501</v>
       </c>
       <c r="D290" t="s">
         <v>207</v>
@@ -8612,10 +8666,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>522</v>
+        <v>560</v>
       </c>
       <c r="B291" t="s">
-        <v>685</v>
+        <v>558</v>
       </c>
       <c r="D291" t="s">
         <v>207</v>
@@ -8623,10 +8677,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>523</v>
+        <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>685</v>
+        <v>288</v>
       </c>
       <c r="D292" t="s">
         <v>207</v>
@@ -8634,10 +8688,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="B293" t="s">
-        <v>680</v>
+        <v>512</v>
       </c>
       <c r="D293" t="s">
         <v>207</v>
@@ -8645,10 +8699,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="B294" t="s">
-        <v>680</v>
+        <v>507</v>
       </c>
       <c r="D294" t="s">
         <v>207</v>
@@ -8656,10 +8710,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B295" t="s">
-        <v>680</v>
+        <v>683</v>
+      </c>
+      <c r="C295" t="s">
+        <v>684</v>
       </c>
       <c r="D295" t="s">
         <v>207</v>
@@ -8667,10 +8724,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="B296" t="s">
-        <v>680</v>
+        <v>516</v>
       </c>
       <c r="D296" t="s">
         <v>207</v>
@@ -8678,10 +8735,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="B297" t="s">
-        <v>681</v>
+        <v>516</v>
       </c>
       <c r="D297" t="s">
         <v>207</v>
@@ -8689,10 +8746,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>594</v>
+        <v>485</v>
       </c>
       <c r="B298" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D298" t="s">
         <v>207</v>
@@ -8700,10 +8757,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B299" t="s">
-        <v>524</v>
+        <v>685</v>
       </c>
       <c r="D299" t="s">
         <v>207</v>
@@ -8711,10 +8768,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B300" t="s">
-        <v>526</v>
+        <v>685</v>
       </c>
       <c r="D300" t="s">
         <v>207</v>
@@ -8722,10 +8779,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="B301" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="D301" t="s">
         <v>207</v>
@@ -8733,10 +8790,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="B302" t="s">
-        <v>528</v>
+        <v>681</v>
       </c>
       <c r="D302" t="s">
         <v>207</v>
@@ -8744,10 +8801,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B303" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D303" t="s">
         <v>207</v>
@@ -8755,10 +8812,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B304" t="s">
-        <v>686</v>
+        <v>526</v>
       </c>
       <c r="D304" t="s">
         <v>207</v>
@@ -8766,10 +8823,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>532</v>
+        <v>339</v>
       </c>
       <c r="B305" t="s">
-        <v>533</v>
+        <v>694</v>
       </c>
       <c r="D305" t="s">
         <v>207</v>
@@ -8777,10 +8834,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>534</v>
+        <v>394</v>
       </c>
       <c r="B306" t="s">
-        <v>533</v>
+        <v>717</v>
+      </c>
+      <c r="C306" t="s">
+        <v>718</v>
       </c>
       <c r="D306" t="s">
         <v>207</v>
@@ -8788,10 +8848,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B307" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D307" t="s">
         <v>207</v>
@@ -8799,10 +8859,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B308" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D308" t="s">
         <v>207</v>
@@ -8810,10 +8870,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B309" t="s">
-        <v>536</v>
+        <v>369</v>
       </c>
       <c r="D309" t="s">
         <v>207</v>
@@ -8821,10 +8881,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B310" t="s">
-        <v>539</v>
+        <v>686</v>
       </c>
       <c r="D310" t="s">
         <v>207</v>
@@ -8832,10 +8892,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B311" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D311" t="s">
         <v>207</v>
@@ -8843,10 +8903,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>704</v>
+        <v>272</v>
       </c>
       <c r="B312" t="s">
-        <v>539</v>
+        <v>669</v>
+      </c>
+      <c r="C312" t="s">
+        <v>670</v>
       </c>
       <c r="D312" t="s">
         <v>207</v>
@@ -8854,10 +8917,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B313" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D313" t="s">
         <v>207</v>
@@ -8865,10 +8928,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B314" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="D314" t="s">
         <v>207</v>
@@ -8876,10 +8939,10 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>545</v>
+        <v>704</v>
       </c>
       <c r="B315" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D315" t="s">
         <v>207</v>
@@ -8887,10 +8950,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B316" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D316" t="s">
         <v>207</v>
@@ -8898,10 +8961,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B317" t="s">
-        <v>687</v>
+        <v>544</v>
       </c>
       <c r="D317" t="s">
         <v>207</v>
@@ -8909,10 +8972,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B318" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D318" t="s">
         <v>207</v>
@@ -8920,10 +8983,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B319" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D319" t="s">
         <v>207</v>
@@ -8931,10 +8994,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B320" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D320" t="s">
         <v>207</v>
@@ -8942,7 +9005,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B321" t="s">
         <v>553</v>
@@ -8953,10 +9016,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B322" t="s">
-        <v>553</v>
+        <v>687</v>
       </c>
       <c r="D322" t="s">
         <v>207</v>
@@ -8964,10 +9027,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B323" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D323" t="s">
         <v>207</v>
@@ -8975,10 +9038,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>555</v>
+        <v>457</v>
       </c>
       <c r="B324" t="s">
-        <v>553</v>
+        <v>714</v>
+      </c>
+      <c r="C324" t="s">
+        <v>718</v>
       </c>
       <c r="D324" t="s">
         <v>207</v>
@@ -8986,7 +9052,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B325" t="s">
         <v>558</v>
@@ -8997,54 +9063,54 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B326" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D326" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B327" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D327" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B328" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="D328" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B329" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="D329" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>563</v>
+        <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>558</v>
+        <v>331</v>
       </c>
       <c r="D330" t="s">
         <v>207</v>
@@ -9052,54 +9118,54 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>564</v>
+        <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>564</v>
+        <v>331</v>
       </c>
       <c r="D331" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>565</v>
+        <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>564</v>
+        <v>331</v>
       </c>
       <c r="D332" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>566</v>
+        <v>508</v>
       </c>
       <c r="B333" t="s">
-        <v>567</v>
+        <v>507</v>
       </c>
       <c r="D333" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>567</v>
+        <v>509</v>
       </c>
       <c r="B334" t="s">
-        <v>567</v>
+        <v>507</v>
       </c>
       <c r="D334" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>568</v>
+        <v>510</v>
       </c>
       <c r="B335" t="s">
-        <v>568</v>
+        <v>507</v>
       </c>
       <c r="D335" t="s">
         <v>207</v>
@@ -9107,10 +9173,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>570</v>
+        <v>513</v>
       </c>
       <c r="B336" t="s">
-        <v>570</v>
+        <v>512</v>
       </c>
       <c r="D336" t="s">
         <v>207</v>
@@ -9118,32 +9184,32 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>571</v>
+        <v>514</v>
       </c>
       <c r="B337" t="s">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="D337" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B338" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D338" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>573</v>
+        <v>538</v>
       </c>
       <c r="B339" t="s">
-        <v>690</v>
+        <v>536</v>
       </c>
       <c r="D339" t="s">
         <v>207</v>
@@ -9151,10 +9217,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="B340" t="s">
-        <v>690</v>
+        <v>549</v>
       </c>
       <c r="D340" t="s">
         <v>207</v>
@@ -9162,32 +9228,35 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="B341" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="D341" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="B342" t="s">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="D342" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B343" t="s">
-        <v>576</v>
+        <v>673</v>
+      </c>
+      <c r="C343" t="s">
+        <v>674</v>
       </c>
       <c r="D343" t="s">
         <v>230</v>
@@ -9195,13 +9264,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="B344" t="s">
-        <v>712</v>
-      </c>
-      <c r="C344" t="s">
-        <v>732</v>
+        <v>558</v>
       </c>
       <c r="D344" t="s">
         <v>207</v>
@@ -9209,13 +9275,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="B345" t="s">
-        <v>712</v>
-      </c>
-      <c r="C345" t="s">
-        <v>732</v>
+        <v>558</v>
       </c>
       <c r="D345" t="s">
         <v>207</v>
@@ -9223,10 +9286,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B346" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D346" t="s">
         <v>207</v>
@@ -9234,10 +9297,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B347" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="D347" t="s">
         <v>230</v>
@@ -9245,10 +9308,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B348" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="D348" t="s">
         <v>230</v>
@@ -9256,24 +9319,21 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>583</v>
+        <v>522</v>
       </c>
       <c r="B349" t="s">
-        <v>581</v>
+        <v>685</v>
       </c>
       <c r="D349" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>584</v>
+        <v>523</v>
       </c>
       <c r="B350" t="s">
-        <v>711</v>
-      </c>
-      <c r="C350" t="s">
-        <v>718</v>
+        <v>685</v>
       </c>
       <c r="D350" t="s">
         <v>207</v>
@@ -9281,13 +9341,10 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="B351" t="s">
-        <v>711</v>
-      </c>
-      <c r="C351" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="D351" t="s">
         <v>207</v>
@@ -9295,13 +9352,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B352" t="s">
-        <v>711</v>
-      </c>
-      <c r="C352" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="D352" t="s">
         <v>207</v>
@@ -9309,10 +9363,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B353" t="s">
-        <v>587</v>
+        <v>711</v>
+      </c>
+      <c r="C353" t="s">
+        <v>718</v>
       </c>
       <c r="D353" t="s">
         <v>207</v>
@@ -9320,51 +9377,223 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B354" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="D354" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B355" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="D355" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B356" t="s">
-        <v>689</v>
+        <v>576</v>
       </c>
       <c r="D356" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>801</v>
+      </c>
+      <c r="B357" t="s">
+        <v>712</v>
+      </c>
+      <c r="C357" t="s">
+        <v>732</v>
+      </c>
+      <c r="D357" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>578</v>
+      </c>
+      <c r="B358" t="s">
+        <v>712</v>
+      </c>
+      <c r="C358" t="s">
+        <v>732</v>
+      </c>
+      <c r="D358" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>579</v>
+      </c>
+      <c r="B359" t="s">
+        <v>712</v>
+      </c>
+      <c r="C359" t="s">
+        <v>732</v>
+      </c>
+      <c r="D359" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>580</v>
+      </c>
+      <c r="B360" t="s">
+        <v>580</v>
+      </c>
+      <c r="D360" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>581</v>
+      </c>
+      <c r="B361" t="s">
+        <v>581</v>
+      </c>
+      <c r="D361" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>582</v>
+      </c>
+      <c r="B362" t="s">
+        <v>581</v>
+      </c>
+      <c r="D362" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>583</v>
+      </c>
+      <c r="B363" t="s">
+        <v>581</v>
+      </c>
+      <c r="D363" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>585</v>
+      </c>
+      <c r="B364" t="s">
+        <v>711</v>
+      </c>
+      <c r="C364" t="s">
+        <v>718</v>
+      </c>
+      <c r="D364" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>795</v>
+      </c>
+      <c r="B365" t="s">
+        <v>711</v>
+      </c>
+      <c r="C365" t="s">
+        <v>718</v>
+      </c>
+      <c r="D365" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>586</v>
+      </c>
+      <c r="B366" t="s">
+        <v>711</v>
+      </c>
+      <c r="C366" t="s">
+        <v>718</v>
+      </c>
+      <c r="D366" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>587</v>
+      </c>
+      <c r="B367" t="s">
+        <v>587</v>
+      </c>
+      <c r="D367" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>588</v>
+      </c>
+      <c r="B368" t="s">
+        <v>588</v>
+      </c>
+      <c r="D368" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>589</v>
+      </c>
+      <c r="B369" t="s">
+        <v>589</v>
+      </c>
+      <c r="D369" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>590</v>
+      </c>
+      <c r="B370" t="s">
+        <v>689</v>
+      </c>
+      <c r="D370" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
         <v>591</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B371" t="s">
         <v>688</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D371" t="s">
         <v>207</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D357">
-    <sortCondition ref="B2:B357"/>
+  <sortState ref="A2:D380">
+    <sortCondition ref="A2:A380"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
